--- a/data/metadata.xlsx
+++ b/data/metadata.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\microbiotaPair\microbiotaPair2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EA4925-5D70-49A3-B943-B2486E5CBDFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52081B93-FEFA-4ACC-939A-FE66927D1C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PWV 项目分析-20200725" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="medata" sheetId="4" r:id="rId3"/>
-    <sheet name="测序样本下机数据编号与样本信息对应" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="medata" sheetId="4" r:id="rId4"/>
+    <sheet name="测序样本下机数据编号与样本信息对应" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$BR$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">测序样本下机数据编号与样本信息对应!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">测序样本下机数据编号与样本信息对应!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="456">
   <si>
     <t>粪便编号</t>
   </si>
@@ -1614,6 +1615,10 @@
     <t>LbaPWV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LLDBP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -22241,8 +22246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3214BE02-77C7-4CEA-9875-DB46377467F1}">
   <dimension ref="A1:BR90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="A1:BR90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41343,11 +41348,8308 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA87A4B-9CE8-42FB-9BC3-40CA98C544B8}">
+  <dimension ref="A1:AD90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G1" t="s">
+        <v>390</v>
+      </c>
+      <c r="H1" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R1" t="s">
+        <v>435</v>
+      </c>
+      <c r="S1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T1" t="s">
+        <v>451</v>
+      </c>
+      <c r="U1" t="s">
+        <v>453</v>
+      </c>
+      <c r="V1" t="s">
+        <v>454</v>
+      </c>
+      <c r="W1" t="s">
+        <v>419</v>
+      </c>
+      <c r="X1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2">
+        <v>26.072111809999999</v>
+      </c>
+      <c r="D2">
+        <v>92.5</v>
+      </c>
+      <c r="E2">
+        <v>160</v>
+      </c>
+      <c r="F2">
+        <v>88.5</v>
+      </c>
+      <c r="G2">
+        <v>77.5</v>
+      </c>
+      <c r="H2">
+        <v>129</v>
+      </c>
+      <c r="I2">
+        <v>98.7</v>
+      </c>
+      <c r="J2">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="K2">
+        <v>137</v>
+      </c>
+      <c r="L2">
+        <v>98</v>
+      </c>
+      <c r="M2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="N2">
+        <v>167.9</v>
+      </c>
+      <c r="O2">
+        <v>119.5</v>
+      </c>
+      <c r="P2">
+        <v>89.7</v>
+      </c>
+      <c r="Q2">
+        <v>181.7</v>
+      </c>
+      <c r="R2">
+        <v>127.5</v>
+      </c>
+      <c r="S2">
+        <v>94.2</v>
+      </c>
+      <c r="T2">
+        <v>79</v>
+      </c>
+      <c r="U2">
+        <v>2058</v>
+      </c>
+      <c r="V2">
+        <v>1927</v>
+      </c>
+      <c r="W2">
+        <v>1.23</v>
+      </c>
+      <c r="X2">
+        <v>1.33</v>
+      </c>
+      <c r="Y2">
+        <v>11.6</v>
+      </c>
+      <c r="Z2">
+        <v>2.12</v>
+      </c>
+      <c r="AA2">
+        <v>5.14</v>
+      </c>
+      <c r="AB2">
+        <v>1.33</v>
+      </c>
+      <c r="AC2">
+        <v>2.94</v>
+      </c>
+      <c r="AD2">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3">
+        <v>18.317543959999998</v>
+      </c>
+      <c r="D3">
+        <v>65.5</v>
+      </c>
+      <c r="E3">
+        <v>114</v>
+      </c>
+      <c r="F3">
+        <v>74.5</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <v>109</v>
+      </c>
+      <c r="I3">
+        <v>84.8</v>
+      </c>
+      <c r="J3">
+        <v>61.7</v>
+      </c>
+      <c r="K3">
+        <v>108</v>
+      </c>
+      <c r="L3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="M3">
+        <v>59.8</v>
+      </c>
+      <c r="N3">
+        <v>113.5</v>
+      </c>
+      <c r="O3">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="P3">
+        <v>52.4</v>
+      </c>
+      <c r="Q3">
+        <v>124.3</v>
+      </c>
+      <c r="R3">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="S3">
+        <v>59.2</v>
+      </c>
+      <c r="T3">
+        <v>68</v>
+      </c>
+      <c r="U3">
+        <v>1359</v>
+      </c>
+      <c r="V3">
+        <v>1286</v>
+      </c>
+      <c r="W3">
+        <v>1.05</v>
+      </c>
+      <c r="X3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3">
+        <v>0.53</v>
+      </c>
+      <c r="AA3">
+        <v>5.29</v>
+      </c>
+      <c r="AB3">
+        <v>2.14</v>
+      </c>
+      <c r="AC3">
+        <v>2.56</v>
+      </c>
+      <c r="AD3">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4">
+        <v>24.379650900000001</v>
+      </c>
+      <c r="D4">
+        <v>90.5</v>
+      </c>
+      <c r="E4">
+        <v>136</v>
+      </c>
+      <c r="F4">
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>73.5</v>
+      </c>
+      <c r="H4">
+        <v>148</v>
+      </c>
+      <c r="I4">
+        <v>114.8</v>
+      </c>
+      <c r="J4">
+        <v>88.6</v>
+      </c>
+      <c r="K4">
+        <v>158</v>
+      </c>
+      <c r="L4">
+        <v>121.3</v>
+      </c>
+      <c r="M4">
+        <v>89.6</v>
+      </c>
+      <c r="N4">
+        <v>183.1</v>
+      </c>
+      <c r="O4">
+        <v>121.7</v>
+      </c>
+      <c r="P4">
+        <v>89.2</v>
+      </c>
+      <c r="Q4">
+        <v>170.6</v>
+      </c>
+      <c r="R4">
+        <v>116.4</v>
+      </c>
+      <c r="S4">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="T4">
+        <v>71</v>
+      </c>
+      <c r="U4">
+        <v>1674</v>
+      </c>
+      <c r="V4">
+        <v>1692</v>
+      </c>
+      <c r="W4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="X4">
+        <v>1.08</v>
+      </c>
+      <c r="Y4">
+        <v>1.8</v>
+      </c>
+      <c r="Z4">
+        <v>0.83</v>
+      </c>
+      <c r="AA4">
+        <v>4.07</v>
+      </c>
+      <c r="AB4">
+        <v>1.34</v>
+      </c>
+      <c r="AC4">
+        <v>2.13</v>
+      </c>
+      <c r="AD4">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5">
+        <v>24.729294639999999</v>
+      </c>
+      <c r="D5">
+        <v>73.5</v>
+      </c>
+      <c r="E5">
+        <v>133</v>
+      </c>
+      <c r="F5">
+        <v>85.5</v>
+      </c>
+      <c r="G5">
+        <v>72.5</v>
+      </c>
+      <c r="H5">
+        <v>149</v>
+      </c>
+      <c r="I5">
+        <v>112</v>
+      </c>
+      <c r="J5">
+        <v>87.9</v>
+      </c>
+      <c r="K5">
+        <v>150</v>
+      </c>
+      <c r="L5">
+        <v>111.8</v>
+      </c>
+      <c r="M5">
+        <v>90.3</v>
+      </c>
+      <c r="N5">
+        <v>181.4</v>
+      </c>
+      <c r="O5">
+        <v>115.8</v>
+      </c>
+      <c r="P5">
+        <v>85.5</v>
+      </c>
+      <c r="Q5">
+        <v>168.7</v>
+      </c>
+      <c r="R5">
+        <v>115.2</v>
+      </c>
+      <c r="S5">
+        <v>95.6</v>
+      </c>
+      <c r="T5">
+        <v>81</v>
+      </c>
+      <c r="U5">
+        <v>1674</v>
+      </c>
+      <c r="V5">
+        <v>1819</v>
+      </c>
+      <c r="W5">
+        <v>1.21</v>
+      </c>
+      <c r="X5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1.19</v>
+      </c>
+      <c r="AA5">
+        <v>4.53</v>
+      </c>
+      <c r="AB5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>2.87</v>
+      </c>
+      <c r="AD5">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6">
+        <v>23.902460420000001</v>
+      </c>
+      <c r="D6">
+        <v>78.5</v>
+      </c>
+      <c r="E6">
+        <v>109.5</v>
+      </c>
+      <c r="F6">
+        <v>65</v>
+      </c>
+      <c r="G6">
+        <v>67.5</v>
+      </c>
+      <c r="H6">
+        <v>105</v>
+      </c>
+      <c r="I6">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="J6">
+        <v>68</v>
+      </c>
+      <c r="K6">
+        <v>109</v>
+      </c>
+      <c r="L6">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="N6">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="O6">
+        <v>87.6</v>
+      </c>
+      <c r="P6">
+        <v>62.1</v>
+      </c>
+      <c r="Q6">
+        <v>95.6</v>
+      </c>
+      <c r="R6">
+        <v>71.3</v>
+      </c>
+      <c r="S6">
+        <v>55.7</v>
+      </c>
+      <c r="T6">
+        <v>68</v>
+      </c>
+      <c r="U6">
+        <v>1078</v>
+      </c>
+      <c r="V6">
+        <v>1040</v>
+      </c>
+      <c r="W6">
+        <v>1.19</v>
+      </c>
+      <c r="X6">
+        <v>0.88</v>
+      </c>
+      <c r="Y6">
+        <v>1.7</v>
+      </c>
+      <c r="Z6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>5.05</v>
+      </c>
+      <c r="AB6">
+        <v>1.54</v>
+      </c>
+      <c r="AC6">
+        <v>2.89</v>
+      </c>
+      <c r="AD6">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7">
+        <v>28.131487889999999</v>
+      </c>
+      <c r="D7">
+        <v>95.2</v>
+      </c>
+      <c r="E7">
+        <v>165.5</v>
+      </c>
+      <c r="F7">
+        <v>115.5</v>
+      </c>
+      <c r="G7">
+        <v>94</v>
+      </c>
+      <c r="H7">
+        <v>172</v>
+      </c>
+      <c r="I7">
+        <v>139.6</v>
+      </c>
+      <c r="J7">
+        <v>115.7</v>
+      </c>
+      <c r="K7">
+        <v>164</v>
+      </c>
+      <c r="L7">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="M7">
+        <v>117</v>
+      </c>
+      <c r="N7">
+        <v>202.8</v>
+      </c>
+      <c r="O7">
+        <v>138.4</v>
+      </c>
+      <c r="P7">
+        <v>104.6</v>
+      </c>
+      <c r="Q7">
+        <v>207.8</v>
+      </c>
+      <c r="R7">
+        <v>120</v>
+      </c>
+      <c r="S7">
+        <v>105.5</v>
+      </c>
+      <c r="T7">
+        <v>89</v>
+      </c>
+      <c r="U7">
+        <v>2002</v>
+      </c>
+      <c r="V7">
+        <v>2070</v>
+      </c>
+      <c r="W7">
+        <v>1.18</v>
+      </c>
+      <c r="X7">
+        <v>1.21</v>
+      </c>
+      <c r="Y7">
+        <v>7.7</v>
+      </c>
+      <c r="Z7">
+        <v>1.33</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC7">
+        <v>3.1</v>
+      </c>
+      <c r="AD7">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8">
+        <v>19.293088170000001</v>
+      </c>
+      <c r="D8">
+        <v>73.5</v>
+      </c>
+      <c r="E8">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>91.5</v>
+      </c>
+      <c r="G8">
+        <v>77.5</v>
+      </c>
+      <c r="H8">
+        <v>122</v>
+      </c>
+      <c r="I8">
+        <v>96.3</v>
+      </c>
+      <c r="J8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="K8">
+        <v>117</v>
+      </c>
+      <c r="L8">
+        <v>84.8</v>
+      </c>
+      <c r="M8">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N8">
+        <v>123</v>
+      </c>
+      <c r="O8">
+        <v>87.8</v>
+      </c>
+      <c r="P8">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="Q8">
+        <v>124.1</v>
+      </c>
+      <c r="R8">
+        <v>81.5</v>
+      </c>
+      <c r="S8">
+        <v>72.8</v>
+      </c>
+      <c r="T8">
+        <v>83</v>
+      </c>
+      <c r="U8">
+        <v>1447</v>
+      </c>
+      <c r="V8">
+        <v>1564</v>
+      </c>
+      <c r="W8">
+        <v>1.01</v>
+      </c>
+      <c r="X8">
+        <v>1.02</v>
+      </c>
+      <c r="Y8">
+        <v>1.6</v>
+      </c>
+      <c r="Z8">
+        <v>1.25</v>
+      </c>
+      <c r="AA8">
+        <v>4.07</v>
+      </c>
+      <c r="AB8">
+        <v>1.41</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9">
+        <v>21.579976609999999</v>
+      </c>
+      <c r="D9">
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>116.5</v>
+      </c>
+      <c r="F9">
+        <v>81</v>
+      </c>
+      <c r="G9">
+        <v>78.5</v>
+      </c>
+      <c r="H9">
+        <v>112</v>
+      </c>
+      <c r="I9">
+        <v>79.3</v>
+      </c>
+      <c r="J9">
+        <v>65.3</v>
+      </c>
+      <c r="K9">
+        <v>116</v>
+      </c>
+      <c r="L9">
+        <v>82.2</v>
+      </c>
+      <c r="M9">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="N9">
+        <v>117.3</v>
+      </c>
+      <c r="O9">
+        <v>85.6</v>
+      </c>
+      <c r="P9">
+        <v>63.9</v>
+      </c>
+      <c r="Q9">
+        <v>122.2</v>
+      </c>
+      <c r="R9">
+        <v>91.3</v>
+      </c>
+      <c r="S9">
+        <v>66.3</v>
+      </c>
+      <c r="T9">
+        <v>68</v>
+      </c>
+      <c r="U9">
+        <v>1236</v>
+      </c>
+      <c r="V9">
+        <v>1238</v>
+      </c>
+      <c r="W9">
+        <v>1.01</v>
+      </c>
+      <c r="X9">
+        <v>1.05</v>
+      </c>
+      <c r="Y9">
+        <v>0.2</v>
+      </c>
+      <c r="Z9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA9">
+        <v>4.63</v>
+      </c>
+      <c r="AB9">
+        <v>1.32</v>
+      </c>
+      <c r="AC9">
+        <v>2.86</v>
+      </c>
+      <c r="AD9">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10">
+        <v>22.02929125</v>
+      </c>
+      <c r="D10">
+        <v>76.5</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <v>96</v>
+      </c>
+      <c r="G10">
+        <v>84.5</v>
+      </c>
+      <c r="H10">
+        <v>172</v>
+      </c>
+      <c r="I10">
+        <v>133.6</v>
+      </c>
+      <c r="J10">
+        <v>103.6</v>
+      </c>
+      <c r="K10">
+        <v>175</v>
+      </c>
+      <c r="L10">
+        <v>133.6</v>
+      </c>
+      <c r="M10">
+        <v>110.8</v>
+      </c>
+      <c r="N10">
+        <v>192.6</v>
+      </c>
+      <c r="O10">
+        <v>133.6</v>
+      </c>
+      <c r="P10">
+        <v>95.3</v>
+      </c>
+      <c r="Q10">
+        <v>186.1</v>
+      </c>
+      <c r="R10">
+        <v>124.2</v>
+      </c>
+      <c r="S10">
+        <v>94</v>
+      </c>
+      <c r="T10">
+        <v>76</v>
+      </c>
+      <c r="U10">
+        <v>2362</v>
+      </c>
+      <c r="V10">
+        <v>2437</v>
+      </c>
+      <c r="W10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X10">
+        <v>1.06</v>
+      </c>
+      <c r="Y10">
+        <v>11.4</v>
+      </c>
+      <c r="Z10">
+        <v>0.98</v>
+      </c>
+      <c r="AA10">
+        <v>5.45</v>
+      </c>
+      <c r="AB10">
+        <v>1.4</v>
+      </c>
+      <c r="AC10">
+        <v>3.42</v>
+      </c>
+      <c r="AD10">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11">
+        <v>27.566640150000001</v>
+      </c>
+      <c r="D11">
+        <v>97</v>
+      </c>
+      <c r="E11">
+        <v>129.5</v>
+      </c>
+      <c r="F11">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>142</v>
+      </c>
+      <c r="I11">
+        <v>104.5</v>
+      </c>
+      <c r="J11">
+        <v>83.8</v>
+      </c>
+      <c r="K11">
+        <v>143</v>
+      </c>
+      <c r="L11">
+        <v>101.8</v>
+      </c>
+      <c r="M11">
+        <v>85.1</v>
+      </c>
+      <c r="N11">
+        <v>172.6</v>
+      </c>
+      <c r="O11">
+        <v>111.5</v>
+      </c>
+      <c r="P11">
+        <v>91</v>
+      </c>
+      <c r="Q11">
+        <v>189.9</v>
+      </c>
+      <c r="R11">
+        <v>114.9</v>
+      </c>
+      <c r="S11">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="T11">
+        <v>81</v>
+      </c>
+      <c r="U11">
+        <v>1749</v>
+      </c>
+      <c r="V11">
+        <v>1642</v>
+      </c>
+      <c r="W11">
+        <v>1.21</v>
+      </c>
+      <c r="X11">
+        <v>1.33</v>
+      </c>
+      <c r="Y11">
+        <v>0.7</v>
+      </c>
+      <c r="Z11">
+        <v>0.91</v>
+      </c>
+      <c r="AA11">
+        <v>4.58</v>
+      </c>
+      <c r="AB11">
+        <v>1.51</v>
+      </c>
+      <c r="AC11">
+        <v>2.58</v>
+      </c>
+      <c r="AD11">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12">
+        <v>20.209673630000001</v>
+      </c>
+      <c r="D12">
+        <v>71.2</v>
+      </c>
+      <c r="E12">
+        <v>108</v>
+      </c>
+      <c r="F12">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>67.5</v>
+      </c>
+      <c r="H12">
+        <v>108</v>
+      </c>
+      <c r="I12">
+        <v>83</v>
+      </c>
+      <c r="J12">
+        <v>61.1</v>
+      </c>
+      <c r="K12">
+        <v>109</v>
+      </c>
+      <c r="L12">
+        <v>83.1</v>
+      </c>
+      <c r="M12">
+        <v>65.2</v>
+      </c>
+      <c r="N12">
+        <v>127.8</v>
+      </c>
+      <c r="O12">
+        <v>74.8</v>
+      </c>
+      <c r="P12">
+        <v>52.4</v>
+      </c>
+      <c r="Q12">
+        <v>119</v>
+      </c>
+      <c r="R12">
+        <v>69.5</v>
+      </c>
+      <c r="S12">
+        <v>44.9</v>
+      </c>
+      <c r="T12">
+        <v>57</v>
+      </c>
+      <c r="U12">
+        <v>1197</v>
+      </c>
+      <c r="V12">
+        <v>1216</v>
+      </c>
+      <c r="W12">
+        <v>1.17</v>
+      </c>
+      <c r="X12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y12">
+        <v>1.3</v>
+      </c>
+      <c r="Z12">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AA12">
+        <v>4.74</v>
+      </c>
+      <c r="AB12">
+        <v>1.34</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13">
+        <v>25.6311675</v>
+      </c>
+      <c r="D13">
+        <v>89.8</v>
+      </c>
+      <c r="E13">
+        <v>113.5</v>
+      </c>
+      <c r="F13">
+        <v>66.5</v>
+      </c>
+      <c r="G13">
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <v>117</v>
+      </c>
+      <c r="I13">
+        <v>82.7</v>
+      </c>
+      <c r="J13">
+        <v>62.9</v>
+      </c>
+      <c r="K13">
+        <v>122</v>
+      </c>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="N13">
+        <v>152.5</v>
+      </c>
+      <c r="O13">
+        <v>103.7</v>
+      </c>
+      <c r="P13">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="Q13">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="R13">
+        <v>89.3</v>
+      </c>
+      <c r="S13">
+        <v>69</v>
+      </c>
+      <c r="T13">
+        <v>73</v>
+      </c>
+      <c r="U13">
+        <v>1401</v>
+      </c>
+      <c r="V13">
+        <v>1410</v>
+      </c>
+      <c r="W13">
+        <v>1.25</v>
+      </c>
+      <c r="X13">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>4.2</v>
+      </c>
+      <c r="Z13">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>4.88</v>
+      </c>
+      <c r="AB13">
+        <v>1.23</v>
+      </c>
+      <c r="AC13">
+        <v>2.99</v>
+      </c>
+      <c r="AD13">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14">
+        <v>25.419145480000001</v>
+      </c>
+      <c r="D14">
+        <v>90.5</v>
+      </c>
+      <c r="E14">
+        <v>114.5</v>
+      </c>
+      <c r="F14">
+        <v>73.5</v>
+      </c>
+      <c r="G14">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>117</v>
+      </c>
+      <c r="I14">
+        <v>85.2</v>
+      </c>
+      <c r="J14">
+        <v>70.7</v>
+      </c>
+      <c r="K14">
+        <v>118</v>
+      </c>
+      <c r="L14">
+        <v>79.8</v>
+      </c>
+      <c r="M14">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="N14">
+        <v>142.1</v>
+      </c>
+      <c r="O14">
+        <v>83.3</v>
+      </c>
+      <c r="P14">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Q14">
+        <v>132.9</v>
+      </c>
+      <c r="R14">
+        <v>89.6</v>
+      </c>
+      <c r="S14">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="T14">
+        <v>59</v>
+      </c>
+      <c r="U14">
+        <v>1252</v>
+      </c>
+      <c r="V14">
+        <v>1306</v>
+      </c>
+      <c r="W14">
+        <v>1.2</v>
+      </c>
+      <c r="X14">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>2.1</v>
+      </c>
+      <c r="Z14">
+        <v>2.56</v>
+      </c>
+      <c r="AA14">
+        <v>4.2</v>
+      </c>
+      <c r="AB14">
+        <v>0.9</v>
+      </c>
+      <c r="AC14">
+        <v>2.61</v>
+      </c>
+      <c r="AD14">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C15">
+        <v>24.650381889999998</v>
+      </c>
+      <c r="D15">
+        <v>83.2</v>
+      </c>
+      <c r="E15">
+        <v>135.5</v>
+      </c>
+      <c r="F15">
+        <v>95</v>
+      </c>
+      <c r="G15">
+        <v>69.5</v>
+      </c>
+      <c r="H15">
+        <v>116</v>
+      </c>
+      <c r="I15">
+        <v>88.3</v>
+      </c>
+      <c r="J15">
+        <v>79.5</v>
+      </c>
+      <c r="K15">
+        <v>112</v>
+      </c>
+      <c r="L15">
+        <v>88.8</v>
+      </c>
+      <c r="M15">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="N15">
+        <v>132.5</v>
+      </c>
+      <c r="O15">
+        <v>89.4</v>
+      </c>
+      <c r="P15">
+        <v>75.2</v>
+      </c>
+      <c r="Q15">
+        <v>131.5</v>
+      </c>
+      <c r="R15">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="S15">
+        <v>61.9</v>
+      </c>
+      <c r="T15">
+        <v>69</v>
+      </c>
+      <c r="U15">
+        <v>1546</v>
+      </c>
+      <c r="V15">
+        <v>1433</v>
+      </c>
+      <c r="W15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Y15">
+        <v>3.9</v>
+      </c>
+      <c r="Z15">
+        <v>0.73</v>
+      </c>
+      <c r="AA15">
+        <v>4.99</v>
+      </c>
+      <c r="AB15">
+        <v>0.98</v>
+      </c>
+      <c r="AC15">
+        <v>3.54</v>
+      </c>
+      <c r="AD15">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16">
+        <v>22.883285279999999</v>
+      </c>
+      <c r="D16">
+        <v>81.3</v>
+      </c>
+      <c r="E16">
+        <v>122.5</v>
+      </c>
+      <c r="F16">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>78</v>
+      </c>
+      <c r="H16">
+        <v>127</v>
+      </c>
+      <c r="I16">
+        <v>91.6</v>
+      </c>
+      <c r="J16">
+        <v>70.3</v>
+      </c>
+      <c r="K16">
+        <v>125</v>
+      </c>
+      <c r="L16">
+        <v>85.1</v>
+      </c>
+      <c r="M16">
+        <v>67</v>
+      </c>
+      <c r="N16">
+        <v>138.5</v>
+      </c>
+      <c r="O16">
+        <v>94.4</v>
+      </c>
+      <c r="P16">
+        <v>69.8</v>
+      </c>
+      <c r="Q16">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="R16">
+        <v>96.2</v>
+      </c>
+      <c r="S16">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="T16">
+        <v>95</v>
+      </c>
+      <c r="U16">
+        <v>1386</v>
+      </c>
+      <c r="V16">
+        <v>1401</v>
+      </c>
+      <c r="W16">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X16">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z16">
+        <v>1.77</v>
+      </c>
+      <c r="AA16">
+        <v>7.09</v>
+      </c>
+      <c r="AB16">
+        <v>1.38</v>
+      </c>
+      <c r="AC16">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AD16">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17">
+        <v>26.108088290000001</v>
+      </c>
+      <c r="D17">
+        <v>85.1</v>
+      </c>
+      <c r="E17">
+        <v>118.5</v>
+      </c>
+      <c r="F17">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>67.5</v>
+      </c>
+      <c r="H17">
+        <v>134</v>
+      </c>
+      <c r="I17">
+        <v>98.6</v>
+      </c>
+      <c r="J17">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="K17">
+        <v>140</v>
+      </c>
+      <c r="L17">
+        <v>97.5</v>
+      </c>
+      <c r="M17">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="N17">
+        <v>151.9</v>
+      </c>
+      <c r="O17">
+        <v>106.6</v>
+      </c>
+      <c r="P17">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Q17">
+        <v>158.9</v>
+      </c>
+      <c r="R17">
+        <v>107.7</v>
+      </c>
+      <c r="S17">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="T17">
+        <v>61</v>
+      </c>
+      <c r="U17">
+        <v>1343</v>
+      </c>
+      <c r="V17">
+        <v>1403</v>
+      </c>
+      <c r="W17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X17">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Y17">
+        <v>2.1</v>
+      </c>
+      <c r="Z17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA17">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AB17">
+        <v>1.59</v>
+      </c>
+      <c r="AC17">
+        <v>2.86</v>
+      </c>
+      <c r="AD17">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18">
+        <v>27.66730695</v>
+      </c>
+      <c r="D18">
+        <v>92</v>
+      </c>
+      <c r="E18">
+        <v>122</v>
+      </c>
+      <c r="F18">
+        <v>77.5</v>
+      </c>
+      <c r="G18">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>135</v>
+      </c>
+      <c r="I18">
+        <v>99.2</v>
+      </c>
+      <c r="J18">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="K18">
+        <v>126</v>
+      </c>
+      <c r="L18">
+        <v>92.4</v>
+      </c>
+      <c r="M18">
+        <v>77.5</v>
+      </c>
+      <c r="N18">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="O18">
+        <v>99.3</v>
+      </c>
+      <c r="P18">
+        <v>74.2</v>
+      </c>
+      <c r="Q18">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="R18">
+        <v>95.1</v>
+      </c>
+      <c r="S18">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="T18">
+        <v>68</v>
+      </c>
+      <c r="U18">
+        <v>1536</v>
+      </c>
+      <c r="V18">
+        <v>1491</v>
+      </c>
+      <c r="W18">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X18">
+        <v>1.01</v>
+      </c>
+      <c r="Y18">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Z18">
+        <v>1.36</v>
+      </c>
+      <c r="AA18">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AB18">
+        <v>1.03</v>
+      </c>
+      <c r="AC18">
+        <v>2.87</v>
+      </c>
+      <c r="AD18">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19">
+        <v>20.206802880000001</v>
+      </c>
+      <c r="D19">
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>111</v>
+      </c>
+      <c r="F19">
+        <v>71.5</v>
+      </c>
+      <c r="G19">
+        <v>75.5</v>
+      </c>
+      <c r="H19">
+        <v>149</v>
+      </c>
+      <c r="I19">
+        <v>115.2</v>
+      </c>
+      <c r="J19">
+        <v>89.4</v>
+      </c>
+      <c r="K19">
+        <v>154</v>
+      </c>
+      <c r="L19">
+        <v>99.4</v>
+      </c>
+      <c r="M19">
+        <v>87.5</v>
+      </c>
+      <c r="N19">
+        <v>177.3</v>
+      </c>
+      <c r="O19">
+        <v>120.2</v>
+      </c>
+      <c r="P19">
+        <v>88.2</v>
+      </c>
+      <c r="Q19">
+        <v>179.3</v>
+      </c>
+      <c r="R19">
+        <v>123.1</v>
+      </c>
+      <c r="S19">
+        <v>89.2</v>
+      </c>
+      <c r="T19">
+        <v>58</v>
+      </c>
+      <c r="U19">
+        <v>1607</v>
+      </c>
+      <c r="V19">
+        <v>1499</v>
+      </c>
+      <c r="W19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X19">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y19">
+        <v>0.5</v>
+      </c>
+      <c r="Z19">
+        <v>0.39</v>
+      </c>
+      <c r="AA19">
+        <v>4.13</v>
+      </c>
+      <c r="AB19">
+        <v>1.49</v>
+      </c>
+      <c r="AC19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AD19">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20">
+        <v>23.10376492</v>
+      </c>
+      <c r="D20">
+        <v>84.5</v>
+      </c>
+      <c r="E20">
+        <v>111</v>
+      </c>
+      <c r="F20">
+        <v>76</v>
+      </c>
+      <c r="G20">
+        <v>93.5</v>
+      </c>
+      <c r="H20">
+        <v>108</v>
+      </c>
+      <c r="I20">
+        <v>90.1</v>
+      </c>
+      <c r="J20">
+        <v>78</v>
+      </c>
+      <c r="K20">
+        <v>109</v>
+      </c>
+      <c r="L20">
+        <v>86.6</v>
+      </c>
+      <c r="M20">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="N20">
+        <v>128.9</v>
+      </c>
+      <c r="O20">
+        <v>91.3</v>
+      </c>
+      <c r="P20">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="Q20">
+        <v>110.1</v>
+      </c>
+      <c r="R20">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="S20">
+        <v>63.7</v>
+      </c>
+      <c r="T20">
+        <v>86</v>
+      </c>
+      <c r="U20">
+        <v>1385</v>
+      </c>
+      <c r="V20">
+        <v>1244</v>
+      </c>
+      <c r="W20">
+        <v>1.18</v>
+      </c>
+      <c r="X20">
+        <v>1.01</v>
+      </c>
+      <c r="Y20">
+        <v>3.8</v>
+      </c>
+      <c r="Z20">
+        <v>2.69</v>
+      </c>
+      <c r="AA20">
+        <v>5.29</v>
+      </c>
+      <c r="AB20">
+        <v>0.94</v>
+      </c>
+      <c r="AC20">
+        <v>3.57</v>
+      </c>
+      <c r="AD20">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21">
+        <v>25.021927340000001</v>
+      </c>
+      <c r="D21">
+        <v>87</v>
+      </c>
+      <c r="E21">
+        <v>136.5</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+      <c r="G21">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>121</v>
+      </c>
+      <c r="I21">
+        <v>95</v>
+      </c>
+      <c r="J21">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="K21">
+        <v>144</v>
+      </c>
+      <c r="L21">
+        <v>113.2</v>
+      </c>
+      <c r="M21">
+        <v>85.7</v>
+      </c>
+      <c r="N21">
+        <v>167.3</v>
+      </c>
+      <c r="O21">
+        <v>107.7</v>
+      </c>
+      <c r="P21">
+        <v>84.9</v>
+      </c>
+      <c r="Q21">
+        <v>169.7</v>
+      </c>
+      <c r="R21">
+        <v>110.7</v>
+      </c>
+      <c r="S21">
+        <v>87</v>
+      </c>
+      <c r="T21">
+        <v>91</v>
+      </c>
+      <c r="U21">
+        <v>2069</v>
+      </c>
+      <c r="V21">
+        <v>2173</v>
+      </c>
+      <c r="W21">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="X21">
+        <v>1.18</v>
+      </c>
+      <c r="Y21">
+        <v>12.5</v>
+      </c>
+      <c r="Z21">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AA21">
+        <v>6.66</v>
+      </c>
+      <c r="AB21">
+        <v>1.33</v>
+      </c>
+      <c r="AC21">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="AD21">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22">
+        <v>25.517787380000001</v>
+      </c>
+      <c r="D22">
+        <v>89.1</v>
+      </c>
+      <c r="E22">
+        <v>126.5</v>
+      </c>
+      <c r="F22">
+        <v>84.5</v>
+      </c>
+      <c r="G22">
+        <v>65.5</v>
+      </c>
+      <c r="H22">
+        <v>124</v>
+      </c>
+      <c r="I22">
+        <v>91.8</v>
+      </c>
+      <c r="J22">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="K22">
+        <v>122</v>
+      </c>
+      <c r="L22">
+        <v>88.5</v>
+      </c>
+      <c r="M22">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="N22">
+        <v>137</v>
+      </c>
+      <c r="O22">
+        <v>98.4</v>
+      </c>
+      <c r="P22">
+        <v>76.5</v>
+      </c>
+      <c r="Q22">
+        <v>138.19999999999999</v>
+      </c>
+      <c r="R22">
+        <v>98.6</v>
+      </c>
+      <c r="S22">
+        <v>72</v>
+      </c>
+      <c r="T22">
+        <v>75</v>
+      </c>
+      <c r="U22">
+        <v>1639</v>
+      </c>
+      <c r="V22">
+        <v>1566</v>
+      </c>
+      <c r="W22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Y22">
+        <v>1.3</v>
+      </c>
+      <c r="Z22">
+        <v>2.36</v>
+      </c>
+      <c r="AA22">
+        <v>5.33</v>
+      </c>
+      <c r="AB22">
+        <v>0.98</v>
+      </c>
+      <c r="AC22">
+        <v>3.69</v>
+      </c>
+      <c r="AD22">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C23">
+        <v>22.72556273</v>
+      </c>
+      <c r="D23">
+        <v>86.1</v>
+      </c>
+      <c r="E23">
+        <v>121</v>
+      </c>
+      <c r="F23">
+        <v>79</v>
+      </c>
+      <c r="G23">
+        <v>78</v>
+      </c>
+      <c r="H23">
+        <v>126</v>
+      </c>
+      <c r="I23">
+        <v>92.4</v>
+      </c>
+      <c r="J23">
+        <v>72.8</v>
+      </c>
+      <c r="K23">
+        <v>124</v>
+      </c>
+      <c r="L23">
+        <v>88.7</v>
+      </c>
+      <c r="M23">
+        <v>72</v>
+      </c>
+      <c r="N23">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="O23">
+        <v>95.1</v>
+      </c>
+      <c r="P23">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="Q23">
+        <v>142.1</v>
+      </c>
+      <c r="R23">
+        <v>96.9</v>
+      </c>
+      <c r="S23">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="T23">
+        <v>84</v>
+      </c>
+      <c r="U23">
+        <v>1671</v>
+      </c>
+      <c r="V23">
+        <v>1659</v>
+      </c>
+      <c r="W23">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X23">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>21.8</v>
+      </c>
+      <c r="Z23">
+        <v>0.97</v>
+      </c>
+      <c r="AA23">
+        <v>4.82</v>
+      </c>
+      <c r="AB23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AC23">
+        <v>3.03</v>
+      </c>
+      <c r="AD23">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24">
+        <v>27.123725360000002</v>
+      </c>
+      <c r="D24">
+        <v>92.1</v>
+      </c>
+      <c r="E24">
+        <v>135</v>
+      </c>
+      <c r="F24">
+        <v>94</v>
+      </c>
+      <c r="G24">
+        <v>98</v>
+      </c>
+      <c r="H24">
+        <v>127</v>
+      </c>
+      <c r="I24">
+        <v>99.4</v>
+      </c>
+      <c r="J24">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="K24">
+        <v>128</v>
+      </c>
+      <c r="L24">
+        <v>102.1</v>
+      </c>
+      <c r="M24">
+        <v>83.8</v>
+      </c>
+      <c r="N24">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="O24">
+        <v>106.1</v>
+      </c>
+      <c r="P24">
+        <v>85.4</v>
+      </c>
+      <c r="Q24">
+        <v>148.1</v>
+      </c>
+      <c r="R24">
+        <v>99.7</v>
+      </c>
+      <c r="S24">
+        <v>80.3</v>
+      </c>
+      <c r="T24">
+        <v>78</v>
+      </c>
+      <c r="U24">
+        <v>1476</v>
+      </c>
+      <c r="V24">
+        <v>1424</v>
+      </c>
+      <c r="W24">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X24">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y24">
+        <v>0.6</v>
+      </c>
+      <c r="Z24">
+        <v>0.9</v>
+      </c>
+      <c r="AA24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB24">
+        <v>1.23</v>
+      </c>
+      <c r="AC24">
+        <v>2.88</v>
+      </c>
+      <c r="AD24">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25">
+        <v>18.427141979999998</v>
+      </c>
+      <c r="D25">
+        <v>79.5</v>
+      </c>
+      <c r="E25">
+        <v>117.5</v>
+      </c>
+      <c r="F25">
+        <v>69</v>
+      </c>
+      <c r="G25">
+        <v>77</v>
+      </c>
+      <c r="H25">
+        <v>126</v>
+      </c>
+      <c r="I25">
+        <v>90.5</v>
+      </c>
+      <c r="J25">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="K25">
+        <v>127</v>
+      </c>
+      <c r="L25">
+        <v>88.5</v>
+      </c>
+      <c r="M25">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="N25">
+        <v>139.9</v>
+      </c>
+      <c r="O25">
+        <v>94.9</v>
+      </c>
+      <c r="P25">
+        <v>70.7</v>
+      </c>
+      <c r="Q25">
+        <v>142.6</v>
+      </c>
+      <c r="R25">
+        <v>92.8</v>
+      </c>
+      <c r="S25">
+        <v>71.5</v>
+      </c>
+      <c r="T25">
+        <v>80</v>
+      </c>
+      <c r="U25">
+        <v>1337</v>
+      </c>
+      <c r="V25">
+        <v>1317</v>
+      </c>
+      <c r="W25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y25">
+        <v>3.4</v>
+      </c>
+      <c r="Z25">
+        <v>0.51</v>
+      </c>
+      <c r="AA25">
+        <v>4.71</v>
+      </c>
+      <c r="AB25">
+        <v>1.35</v>
+      </c>
+      <c r="AC25">
+        <v>2.82</v>
+      </c>
+      <c r="AD25">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26">
+        <v>21.542596079999999</v>
+      </c>
+      <c r="D26">
+        <v>69.8</v>
+      </c>
+      <c r="E26">
+        <v>136.5</v>
+      </c>
+      <c r="F26">
+        <v>78</v>
+      </c>
+      <c r="G26">
+        <v>69.5</v>
+      </c>
+      <c r="H26">
+        <v>109</v>
+      </c>
+      <c r="I26">
+        <v>77.8</v>
+      </c>
+      <c r="J26">
+        <v>58.8</v>
+      </c>
+      <c r="K26">
+        <v>108</v>
+      </c>
+      <c r="L26">
+        <v>80.8</v>
+      </c>
+      <c r="M26">
+        <v>56.4</v>
+      </c>
+      <c r="N26">
+        <v>137.9</v>
+      </c>
+      <c r="O26">
+        <v>89.4</v>
+      </c>
+      <c r="P26">
+        <v>63.8</v>
+      </c>
+      <c r="Q26">
+        <v>132.1</v>
+      </c>
+      <c r="R26">
+        <v>85.8</v>
+      </c>
+      <c r="S26">
+        <v>65.5</v>
+      </c>
+      <c r="T26">
+        <v>108</v>
+      </c>
+      <c r="U26">
+        <v>1271</v>
+      </c>
+      <c r="V26">
+        <v>1233</v>
+      </c>
+      <c r="W26">
+        <v>1.27</v>
+      </c>
+      <c r="X26">
+        <v>1.21</v>
+      </c>
+      <c r="Y26">
+        <v>10</v>
+      </c>
+      <c r="Z26">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AA26">
+        <v>4.32</v>
+      </c>
+      <c r="AB26">
+        <v>1.34</v>
+      </c>
+      <c r="AC26">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AD26">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27">
+        <v>23.586343549999999</v>
+      </c>
+      <c r="D27">
+        <v>79.5</v>
+      </c>
+      <c r="E27">
+        <v>114.5</v>
+      </c>
+      <c r="F27">
+        <v>77</v>
+      </c>
+      <c r="G27">
+        <v>78.5</v>
+      </c>
+      <c r="H27">
+        <v>113</v>
+      </c>
+      <c r="I27">
+        <v>86.5</v>
+      </c>
+      <c r="J27">
+        <v>76.2</v>
+      </c>
+      <c r="K27">
+        <v>117</v>
+      </c>
+      <c r="L27">
+        <v>84.4</v>
+      </c>
+      <c r="M27">
+        <v>73.2</v>
+      </c>
+      <c r="N27">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="O27">
+        <v>82.1</v>
+      </c>
+      <c r="P27">
+        <v>57.1</v>
+      </c>
+      <c r="Q27">
+        <v>133.6</v>
+      </c>
+      <c r="R27">
+        <v>87.9</v>
+      </c>
+      <c r="S27">
+        <v>66.7</v>
+      </c>
+      <c r="T27">
+        <v>84</v>
+      </c>
+      <c r="U27">
+        <v>1422</v>
+      </c>
+      <c r="V27">
+        <v>1378</v>
+      </c>
+      <c r="W27">
+        <v>1.18</v>
+      </c>
+      <c r="X27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z27">
+        <v>1.02</v>
+      </c>
+      <c r="AA27">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AB27">
+        <v>1.24</v>
+      </c>
+      <c r="AC27">
+        <v>3.06</v>
+      </c>
+      <c r="AD27">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28">
+        <v>25.897555879999999</v>
+      </c>
+      <c r="D28">
+        <v>85.5</v>
+      </c>
+      <c r="E28">
+        <v>111</v>
+      </c>
+      <c r="F28">
+        <v>65.5</v>
+      </c>
+      <c r="G28">
+        <v>74.5</v>
+      </c>
+      <c r="H28">
+        <v>106</v>
+      </c>
+      <c r="I28">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="J28">
+        <v>56.7</v>
+      </c>
+      <c r="K28">
+        <v>106</v>
+      </c>
+      <c r="L28">
+        <v>71.8</v>
+      </c>
+      <c r="M28">
+        <v>54.3</v>
+      </c>
+      <c r="N28">
+        <v>119.5</v>
+      </c>
+      <c r="O28">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="P28">
+        <v>65.8</v>
+      </c>
+      <c r="Q28">
+        <v>115.9</v>
+      </c>
+      <c r="R28">
+        <v>78.8</v>
+      </c>
+      <c r="S28">
+        <v>58.2</v>
+      </c>
+      <c r="T28">
+        <v>61</v>
+      </c>
+      <c r="U28">
+        <v>1279</v>
+      </c>
+      <c r="V28">
+        <v>1231</v>
+      </c>
+      <c r="W28">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X28">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>2.7</v>
+      </c>
+      <c r="Z28">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AA28">
+        <v>4.76</v>
+      </c>
+      <c r="AB28">
+        <v>0.96</v>
+      </c>
+      <c r="AC28">
+        <v>3.27</v>
+      </c>
+      <c r="AD28">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29">
+        <v>23.677402539999999</v>
+      </c>
+      <c r="D29">
+        <v>73</v>
+      </c>
+      <c r="E29">
+        <v>124.5</v>
+      </c>
+      <c r="F29">
+        <v>90.5</v>
+      </c>
+      <c r="G29">
+        <v>89</v>
+      </c>
+      <c r="H29">
+        <v>131</v>
+      </c>
+      <c r="I29">
+        <v>101.7</v>
+      </c>
+      <c r="J29">
+        <v>87.1</v>
+      </c>
+      <c r="K29">
+        <v>130</v>
+      </c>
+      <c r="L29">
+        <v>101.8</v>
+      </c>
+      <c r="M29">
+        <v>85.9</v>
+      </c>
+      <c r="N29">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="O29">
+        <v>106.8</v>
+      </c>
+      <c r="P29">
+        <v>85</v>
+      </c>
+      <c r="Q29">
+        <v>152</v>
+      </c>
+      <c r="R29">
+        <v>101.6</v>
+      </c>
+      <c r="S29">
+        <v>80.5</v>
+      </c>
+      <c r="T29">
+        <v>90</v>
+      </c>
+      <c r="U29">
+        <v>1535</v>
+      </c>
+      <c r="V29">
+        <v>1591</v>
+      </c>
+      <c r="W29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X29">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>0.7</v>
+      </c>
+      <c r="Z29">
+        <v>1.56</v>
+      </c>
+      <c r="AA29">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AB29">
+        <v>1.26</v>
+      </c>
+      <c r="AC29">
+        <v>2.41</v>
+      </c>
+      <c r="AD29">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30">
+        <v>21.825235339999999</v>
+      </c>
+      <c r="D30">
+        <v>70.5</v>
+      </c>
+      <c r="E30">
+        <v>112.5</v>
+      </c>
+      <c r="F30">
+        <v>65</v>
+      </c>
+      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="H30">
+        <v>115</v>
+      </c>
+      <c r="I30">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="J30">
+        <v>64.5</v>
+      </c>
+      <c r="K30">
+        <v>107</v>
+      </c>
+      <c r="L30">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M30">
+        <v>59.2</v>
+      </c>
+      <c r="N30">
+        <v>122.4</v>
+      </c>
+      <c r="O30">
+        <v>74.7</v>
+      </c>
+      <c r="P30">
+        <v>55.9</v>
+      </c>
+      <c r="Q30">
+        <v>118.9</v>
+      </c>
+      <c r="R30">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="S30">
+        <v>58.8</v>
+      </c>
+      <c r="T30">
+        <v>84</v>
+      </c>
+      <c r="U30">
+        <v>1374</v>
+      </c>
+      <c r="V30">
+        <v>1410</v>
+      </c>
+      <c r="W30">
+        <v>1.06</v>
+      </c>
+      <c r="X30">
+        <v>1.03</v>
+      </c>
+      <c r="Y30">
+        <v>1.2</v>
+      </c>
+      <c r="Z30">
+        <v>0.42</v>
+      </c>
+      <c r="AA30">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AB30">
+        <v>1.79</v>
+      </c>
+      <c r="AC30">
+        <v>2.6</v>
+      </c>
+      <c r="AD30">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C31">
+        <v>29.350732059999999</v>
+      </c>
+      <c r="D31">
+        <v>98.5</v>
+      </c>
+      <c r="E31">
+        <v>135.5</v>
+      </c>
+      <c r="F31">
+        <v>83</v>
+      </c>
+      <c r="G31">
+        <v>62.5</v>
+      </c>
+      <c r="H31">
+        <v>142</v>
+      </c>
+      <c r="I31">
+        <v>109.2</v>
+      </c>
+      <c r="J31">
+        <v>82.4</v>
+      </c>
+      <c r="K31">
+        <v>140</v>
+      </c>
+      <c r="L31">
+        <v>108.1</v>
+      </c>
+      <c r="M31">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="N31">
+        <v>153.4</v>
+      </c>
+      <c r="O31">
+        <v>100.3</v>
+      </c>
+      <c r="P31">
+        <v>68.3</v>
+      </c>
+      <c r="Q31">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="R31">
+        <v>103.8</v>
+      </c>
+      <c r="S31">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="T31">
+        <v>66</v>
+      </c>
+      <c r="U31">
+        <v>1623</v>
+      </c>
+      <c r="V31">
+        <v>1458</v>
+      </c>
+      <c r="W31">
+        <v>1.08</v>
+      </c>
+      <c r="X31">
+        <v>1.06</v>
+      </c>
+      <c r="Y31">
+        <v>6.4</v>
+      </c>
+      <c r="Z31">
+        <v>0.52</v>
+      </c>
+      <c r="AA31">
+        <v>5.12</v>
+      </c>
+      <c r="AB31">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AC31">
+        <v>3.47</v>
+      </c>
+      <c r="AD31">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32">
+        <v>17.944258829999999</v>
+      </c>
+      <c r="D32">
+        <v>68.5</v>
+      </c>
+      <c r="E32">
+        <v>146.5</v>
+      </c>
+      <c r="F32">
+        <v>80</v>
+      </c>
+      <c r="G32">
+        <v>66</v>
+      </c>
+      <c r="H32">
+        <v>156</v>
+      </c>
+      <c r="I32">
+        <v>117.8</v>
+      </c>
+      <c r="J32">
+        <v>80.2</v>
+      </c>
+      <c r="K32">
+        <v>155</v>
+      </c>
+      <c r="L32">
+        <v>117.8</v>
+      </c>
+      <c r="M32">
+        <v>81.3</v>
+      </c>
+      <c r="N32">
+        <v>189.4</v>
+      </c>
+      <c r="O32">
+        <v>120.9</v>
+      </c>
+      <c r="P32">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="Q32">
+        <v>184.8</v>
+      </c>
+      <c r="R32">
+        <v>124.6</v>
+      </c>
+      <c r="S32">
+        <v>86.2</v>
+      </c>
+      <c r="T32">
+        <v>60</v>
+      </c>
+      <c r="U32">
+        <v>1769</v>
+      </c>
+      <c r="V32">
+        <v>1874</v>
+      </c>
+      <c r="W32">
+        <v>1.21</v>
+      </c>
+      <c r="X32">
+        <v>1.19</v>
+      </c>
+      <c r="Y32">
+        <v>7.2</v>
+      </c>
+      <c r="Z32">
+        <v>0.66</v>
+      </c>
+      <c r="AA32">
+        <v>5.39</v>
+      </c>
+      <c r="AB32">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AC32">
+        <v>2.57</v>
+      </c>
+      <c r="AD32">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33">
+        <v>23.875432530000001</v>
+      </c>
+      <c r="D33">
+        <v>89.4</v>
+      </c>
+      <c r="E33">
+        <v>100.5</v>
+      </c>
+      <c r="F33">
+        <v>69</v>
+      </c>
+      <c r="G33">
+        <v>64.5</v>
+      </c>
+      <c r="H33">
+        <v>141</v>
+      </c>
+      <c r="I33">
+        <v>112.1</v>
+      </c>
+      <c r="J33">
+        <v>84.7</v>
+      </c>
+      <c r="K33">
+        <v>138</v>
+      </c>
+      <c r="L33">
+        <v>92.4</v>
+      </c>
+      <c r="M33">
+        <v>81.5</v>
+      </c>
+      <c r="N33">
+        <v>155.9</v>
+      </c>
+      <c r="O33">
+        <v>109.3</v>
+      </c>
+      <c r="P33">
+        <v>81.5</v>
+      </c>
+      <c r="Q33">
+        <v>153</v>
+      </c>
+      <c r="R33">
+        <v>103.6</v>
+      </c>
+      <c r="S33">
+        <v>76.3</v>
+      </c>
+      <c r="T33">
+        <v>61</v>
+      </c>
+      <c r="U33">
+        <v>1878</v>
+      </c>
+      <c r="V33">
+        <v>1862</v>
+      </c>
+      <c r="W33">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X33">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y33">
+        <v>22.8</v>
+      </c>
+      <c r="Z33">
+        <v>0.83</v>
+      </c>
+      <c r="AA33">
+        <v>5.43</v>
+      </c>
+      <c r="AB33">
+        <v>1.29</v>
+      </c>
+      <c r="AC33">
+        <v>3.43</v>
+      </c>
+      <c r="AD33">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34">
+        <v>28.13895496</v>
+      </c>
+      <c r="D34">
+        <v>86.2</v>
+      </c>
+      <c r="E34">
+        <v>162</v>
+      </c>
+      <c r="F34">
+        <v>97</v>
+      </c>
+      <c r="G34">
+        <v>62</v>
+      </c>
+      <c r="H34">
+        <v>159</v>
+      </c>
+      <c r="I34">
+        <v>110.8</v>
+      </c>
+      <c r="J34">
+        <v>90.1</v>
+      </c>
+      <c r="K34">
+        <v>150</v>
+      </c>
+      <c r="L34">
+        <v>105.9</v>
+      </c>
+      <c r="M34">
+        <v>89.7</v>
+      </c>
+      <c r="N34">
+        <v>173.8</v>
+      </c>
+      <c r="O34">
+        <v>123.9</v>
+      </c>
+      <c r="P34">
+        <v>83.6</v>
+      </c>
+      <c r="Q34">
+        <v>170.1</v>
+      </c>
+      <c r="R34">
+        <v>126.4</v>
+      </c>
+      <c r="S34">
+        <v>89.8</v>
+      </c>
+      <c r="T34">
+        <v>63</v>
+      </c>
+      <c r="U34">
+        <v>1438</v>
+      </c>
+      <c r="V34">
+        <v>1460</v>
+      </c>
+      <c r="W34">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X34">
+        <v>1.07</v>
+      </c>
+      <c r="Y34">
+        <v>1.6</v>
+      </c>
+      <c r="Z34">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AA34">
+        <v>4.01</v>
+      </c>
+      <c r="AB34">
+        <v>1.93</v>
+      </c>
+      <c r="AC34">
+        <v>1.41</v>
+      </c>
+      <c r="AD34">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35">
+        <v>26.197542039999998</v>
+      </c>
+      <c r="D35">
+        <v>91.3</v>
+      </c>
+      <c r="E35">
+        <v>138.5</v>
+      </c>
+      <c r="F35">
+        <v>90</v>
+      </c>
+      <c r="G35">
+        <v>61.5</v>
+      </c>
+      <c r="H35">
+        <v>157</v>
+      </c>
+      <c r="I35">
+        <v>120.6</v>
+      </c>
+      <c r="J35">
+        <v>94.3</v>
+      </c>
+      <c r="K35">
+        <v>155</v>
+      </c>
+      <c r="L35">
+        <v>115.9</v>
+      </c>
+      <c r="M35">
+        <v>94.6</v>
+      </c>
+      <c r="N35">
+        <v>183.3</v>
+      </c>
+      <c r="O35">
+        <v>110.7</v>
+      </c>
+      <c r="P35">
+        <v>89.4</v>
+      </c>
+      <c r="Q35">
+        <v>180.4</v>
+      </c>
+      <c r="R35">
+        <v>110.7</v>
+      </c>
+      <c r="S35">
+        <v>91</v>
+      </c>
+      <c r="T35">
+        <v>62</v>
+      </c>
+      <c r="U35">
+        <v>1748</v>
+      </c>
+      <c r="V35">
+        <v>1664</v>
+      </c>
+      <c r="W35">
+        <v>1.17</v>
+      </c>
+      <c r="X35">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y35">
+        <v>1.5</v>
+      </c>
+      <c r="Z35">
+        <v>1.57</v>
+      </c>
+      <c r="AA35">
+        <v>4.22</v>
+      </c>
+      <c r="AB35">
+        <v>1.05</v>
+      </c>
+      <c r="AC35">
+        <v>2.58</v>
+      </c>
+      <c r="AD35">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36">
+        <v>24.46696515</v>
+      </c>
+      <c r="D36">
+        <v>84</v>
+      </c>
+      <c r="E36">
+        <v>124</v>
+      </c>
+      <c r="F36">
+        <v>87</v>
+      </c>
+      <c r="G36">
+        <v>78.5</v>
+      </c>
+      <c r="H36">
+        <v>114</v>
+      </c>
+      <c r="I36">
+        <v>89.9</v>
+      </c>
+      <c r="J36">
+        <v>68.8</v>
+      </c>
+      <c r="K36">
+        <v>121</v>
+      </c>
+      <c r="L36">
+        <v>87.4</v>
+      </c>
+      <c r="M36">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="N36">
+        <v>131.9</v>
+      </c>
+      <c r="O36">
+        <v>95.6</v>
+      </c>
+      <c r="P36">
+        <v>72</v>
+      </c>
+      <c r="Q36">
+        <v>132.1</v>
+      </c>
+      <c r="R36">
+        <v>91.8</v>
+      </c>
+      <c r="S36">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="T36">
+        <v>86</v>
+      </c>
+      <c r="U36">
+        <v>1530</v>
+      </c>
+      <c r="V36">
+        <v>1521</v>
+      </c>
+      <c r="W36">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X36">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y36">
+        <v>1.5</v>
+      </c>
+      <c r="Z36">
+        <v>0.2</v>
+      </c>
+      <c r="AA36">
+        <v>5.42</v>
+      </c>
+      <c r="AB36">
+        <v>1.89</v>
+      </c>
+      <c r="AC36">
+        <v>2.94</v>
+      </c>
+      <c r="AD36">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37">
+        <v>25.366338079999998</v>
+      </c>
+      <c r="D37">
+        <v>89.8</v>
+      </c>
+      <c r="E37">
+        <v>103</v>
+      </c>
+      <c r="F37">
+        <v>66.5</v>
+      </c>
+      <c r="G37">
+        <v>65.5</v>
+      </c>
+      <c r="H37">
+        <v>117</v>
+      </c>
+      <c r="I37">
+        <v>84.1</v>
+      </c>
+      <c r="J37">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="K37">
+        <v>115</v>
+      </c>
+      <c r="L37">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="M37">
+        <v>61.4</v>
+      </c>
+      <c r="N37">
+        <v>134.5</v>
+      </c>
+      <c r="O37">
+        <v>88.6</v>
+      </c>
+      <c r="P37">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="Q37">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="R37">
+        <v>84.1</v>
+      </c>
+      <c r="S37">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1401</v>
+      </c>
+      <c r="V37">
+        <v>1388</v>
+      </c>
+      <c r="W37">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X37">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y37">
+        <v>2.7</v>
+      </c>
+      <c r="Z37">
+        <v>2.48</v>
+      </c>
+      <c r="AA37">
+        <v>4.42</v>
+      </c>
+      <c r="AB37">
+        <v>1.19</v>
+      </c>
+      <c r="AC37">
+        <v>2.41</v>
+      </c>
+      <c r="AD37">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38">
+        <v>18.477508650000001</v>
+      </c>
+      <c r="D38">
+        <v>72</v>
+      </c>
+      <c r="E38">
+        <v>110.5</v>
+      </c>
+      <c r="F38">
+        <v>68.5</v>
+      </c>
+      <c r="G38">
+        <v>55.5</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>76.8</v>
+      </c>
+      <c r="J38">
+        <v>65</v>
+      </c>
+      <c r="K38">
+        <v>104</v>
+      </c>
+      <c r="L38">
+        <v>80.2</v>
+      </c>
+      <c r="M38">
+        <v>68.2</v>
+      </c>
+      <c r="N38">
+        <v>116.4</v>
+      </c>
+      <c r="O38">
+        <v>80.7</v>
+      </c>
+      <c r="P38">
+        <v>68.5</v>
+      </c>
+      <c r="Q38">
+        <v>122.1</v>
+      </c>
+      <c r="R38">
+        <v>83.4</v>
+      </c>
+      <c r="S38">
+        <v>65.8</v>
+      </c>
+      <c r="T38">
+        <v>101</v>
+      </c>
+      <c r="U38">
+        <v>1351</v>
+      </c>
+      <c r="V38">
+        <v>1328</v>
+      </c>
+      <c r="W38">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="X38">
+        <v>1.17</v>
+      </c>
+      <c r="Y38">
+        <v>3.2</v>
+      </c>
+      <c r="Z38">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA38">
+        <v>3.95</v>
+      </c>
+      <c r="AB38">
+        <v>1.42</v>
+      </c>
+      <c r="AC38">
+        <v>2.25</v>
+      </c>
+      <c r="AD38">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39">
+        <v>19.0215648</v>
+      </c>
+      <c r="D39">
+        <v>70.5</v>
+      </c>
+      <c r="E39">
+        <v>136</v>
+      </c>
+      <c r="F39">
+        <v>84</v>
+      </c>
+      <c r="G39">
+        <v>78.5</v>
+      </c>
+      <c r="H39">
+        <v>118</v>
+      </c>
+      <c r="I39">
+        <v>87.1</v>
+      </c>
+      <c r="J39">
+        <v>70.5</v>
+      </c>
+      <c r="K39">
+        <v>121</v>
+      </c>
+      <c r="L39">
+        <v>91.8</v>
+      </c>
+      <c r="M39">
+        <v>74.3</v>
+      </c>
+      <c r="N39">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="O39">
+        <v>84.5</v>
+      </c>
+      <c r="P39">
+        <v>63.7</v>
+      </c>
+      <c r="Q39">
+        <v>128.9</v>
+      </c>
+      <c r="R39">
+        <v>88.5</v>
+      </c>
+      <c r="S39">
+        <v>66.8</v>
+      </c>
+      <c r="T39">
+        <v>79</v>
+      </c>
+      <c r="U39">
+        <v>1300</v>
+      </c>
+      <c r="V39">
+        <v>1249</v>
+      </c>
+      <c r="W39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X39">
+        <v>1.07</v>
+      </c>
+      <c r="Y39">
+        <v>1.3</v>
+      </c>
+      <c r="Z39">
+        <v>0.93</v>
+      </c>
+      <c r="AA39">
+        <v>4.97</v>
+      </c>
+      <c r="AB39">
+        <v>1.51</v>
+      </c>
+      <c r="AC39">
+        <v>2.86</v>
+      </c>
+      <c r="AD39">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40">
+        <v>19.55568697</v>
+      </c>
+      <c r="D40">
+        <v>75.5</v>
+      </c>
+      <c r="E40">
+        <v>115</v>
+      </c>
+      <c r="F40">
+        <v>75.5</v>
+      </c>
+      <c r="G40">
+        <v>54</v>
+      </c>
+      <c r="H40">
+        <v>124</v>
+      </c>
+      <c r="I40">
+        <v>93.5</v>
+      </c>
+      <c r="J40">
+        <v>74</v>
+      </c>
+      <c r="K40">
+        <v>122</v>
+      </c>
+      <c r="L40">
+        <v>83.6</v>
+      </c>
+      <c r="M40">
+        <v>66.7</v>
+      </c>
+      <c r="N40">
+        <v>138.9</v>
+      </c>
+      <c r="O40">
+        <v>94.6</v>
+      </c>
+      <c r="P40">
+        <v>69.2</v>
+      </c>
+      <c r="Q40">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="R40">
+        <v>96.3</v>
+      </c>
+      <c r="S40">
+        <v>72</v>
+      </c>
+      <c r="T40">
+        <v>47</v>
+      </c>
+      <c r="U40">
+        <v>1196</v>
+      </c>
+      <c r="V40">
+        <v>1231</v>
+      </c>
+      <c r="W40">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="X40">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Z40">
+        <v>0.87</v>
+      </c>
+      <c r="AA40">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AB40">
+        <v>1.2</v>
+      </c>
+      <c r="AC40">
+        <v>2.62</v>
+      </c>
+      <c r="AD40">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41">
+        <v>28.288445280000001</v>
+      </c>
+      <c r="D41">
+        <v>75.5</v>
+      </c>
+      <c r="E41">
+        <v>140</v>
+      </c>
+      <c r="F41">
+        <v>93.5</v>
+      </c>
+      <c r="G41">
+        <v>105</v>
+      </c>
+      <c r="H41">
+        <v>141</v>
+      </c>
+      <c r="I41">
+        <v>108</v>
+      </c>
+      <c r="J41">
+        <v>91.9</v>
+      </c>
+      <c r="K41">
+        <v>144</v>
+      </c>
+      <c r="L41">
+        <v>107.9</v>
+      </c>
+      <c r="M41">
+        <v>85.7</v>
+      </c>
+      <c r="N41">
+        <v>164.8</v>
+      </c>
+      <c r="O41">
+        <v>112.9</v>
+      </c>
+      <c r="P41">
+        <v>85.5</v>
+      </c>
+      <c r="Q41">
+        <v>165.3</v>
+      </c>
+      <c r="R41">
+        <v>109.9</v>
+      </c>
+      <c r="S41">
+        <v>79.2</v>
+      </c>
+      <c r="T41">
+        <v>98</v>
+      </c>
+      <c r="U41">
+        <v>1748</v>
+      </c>
+      <c r="V41">
+        <v>1710</v>
+      </c>
+      <c r="W41">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X41">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>3.3</v>
+      </c>
+      <c r="Z41">
+        <v>0.7</v>
+      </c>
+      <c r="AA41">
+        <v>4.45</v>
+      </c>
+      <c r="AB41">
+        <v>1.37</v>
+      </c>
+      <c r="AC41">
+        <v>2.56</v>
+      </c>
+      <c r="AD41">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C42">
+        <v>20.866305189999999</v>
+      </c>
+      <c r="D42">
+        <v>77.5</v>
+      </c>
+      <c r="E42">
+        <v>146.5</v>
+      </c>
+      <c r="F42">
+        <v>82</v>
+      </c>
+      <c r="G42">
+        <v>85</v>
+      </c>
+      <c r="H42">
+        <v>146</v>
+      </c>
+      <c r="I42">
+        <v>113.6</v>
+      </c>
+      <c r="J42">
+        <v>82.4</v>
+      </c>
+      <c r="K42">
+        <v>155</v>
+      </c>
+      <c r="L42">
+        <v>118.1</v>
+      </c>
+      <c r="M42">
+        <v>87.1</v>
+      </c>
+      <c r="N42">
+        <v>175.6</v>
+      </c>
+      <c r="O42">
+        <v>117</v>
+      </c>
+      <c r="P42">
+        <v>82.6</v>
+      </c>
+      <c r="Q42">
+        <v>165.3</v>
+      </c>
+      <c r="R42">
+        <v>107.1</v>
+      </c>
+      <c r="S42">
+        <v>75.7</v>
+      </c>
+      <c r="T42">
+        <v>76</v>
+      </c>
+      <c r="U42">
+        <v>1816</v>
+      </c>
+      <c r="V42">
+        <v>1842</v>
+      </c>
+      <c r="W42">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X42">
+        <v>1.06</v>
+      </c>
+      <c r="Y42">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Z42">
+        <v>0.86</v>
+      </c>
+      <c r="AA42">
+        <v>4.79</v>
+      </c>
+      <c r="AB42">
+        <v>1.79</v>
+      </c>
+      <c r="AC42">
+        <v>2.42</v>
+      </c>
+      <c r="AD42">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43">
+        <v>18.963329959999999</v>
+      </c>
+      <c r="D43">
+        <v>70.5</v>
+      </c>
+      <c r="E43">
+        <v>90.5</v>
+      </c>
+      <c r="F43">
+        <v>61</v>
+      </c>
+      <c r="G43">
+        <v>83</v>
+      </c>
+      <c r="H43">
+        <v>93</v>
+      </c>
+      <c r="I43">
+        <v>71.2</v>
+      </c>
+      <c r="J43">
+        <v>58.6</v>
+      </c>
+      <c r="K43">
+        <v>92</v>
+      </c>
+      <c r="L43">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M43">
+        <v>57.6</v>
+      </c>
+      <c r="N43">
+        <v>111</v>
+      </c>
+      <c r="O43">
+        <v>78.5</v>
+      </c>
+      <c r="P43">
+        <v>61.2</v>
+      </c>
+      <c r="Q43">
+        <v>107.1</v>
+      </c>
+      <c r="R43">
+        <v>71.8</v>
+      </c>
+      <c r="S43">
+        <v>55.1</v>
+      </c>
+      <c r="T43">
+        <v>69</v>
+      </c>
+      <c r="U43">
+        <v>1009</v>
+      </c>
+      <c r="V43">
+        <v>1019</v>
+      </c>
+      <c r="W43">
+        <v>1.19</v>
+      </c>
+      <c r="X43">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>0.3</v>
+      </c>
+      <c r="Z43">
+        <v>0.46</v>
+      </c>
+      <c r="AA43">
+        <v>3.58</v>
+      </c>
+      <c r="AB43">
+        <v>1.44</v>
+      </c>
+      <c r="AC43">
+        <v>1.78</v>
+      </c>
+      <c r="AD43">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44">
+        <v>22.117804339999999</v>
+      </c>
+      <c r="D44">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E44">
+        <v>101</v>
+      </c>
+      <c r="F44">
+        <v>68</v>
+      </c>
+      <c r="G44">
+        <v>99</v>
+      </c>
+      <c r="H44">
+        <v>110</v>
+      </c>
+      <c r="I44">
+        <v>78.5</v>
+      </c>
+      <c r="J44">
+        <v>62.6</v>
+      </c>
+      <c r="K44">
+        <v>109</v>
+      </c>
+      <c r="L44">
+        <v>80.3</v>
+      </c>
+      <c r="M44">
+        <v>58.8</v>
+      </c>
+      <c r="N44">
+        <v>121.5</v>
+      </c>
+      <c r="O44">
+        <v>88.3</v>
+      </c>
+      <c r="P44">
+        <v>65.2</v>
+      </c>
+      <c r="Q44">
+        <v>124.2</v>
+      </c>
+      <c r="R44">
+        <v>91.4</v>
+      </c>
+      <c r="S44">
+        <v>69.5</v>
+      </c>
+      <c r="T44">
+        <v>84</v>
+      </c>
+      <c r="U44">
+        <v>1438</v>
+      </c>
+      <c r="V44">
+        <v>1430</v>
+      </c>
+      <c r="W44">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X44">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>0.7</v>
+      </c>
+      <c r="Z44">
+        <v>0.52</v>
+      </c>
+      <c r="AA44">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AB44">
+        <v>1.51</v>
+      </c>
+      <c r="AC44">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AD44">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45">
+        <v>29.725673990000001</v>
+      </c>
+      <c r="D45">
+        <v>96.2</v>
+      </c>
+      <c r="E45">
+        <v>150.5</v>
+      </c>
+      <c r="F45">
+        <v>86</v>
+      </c>
+      <c r="G45">
+        <v>62</v>
+      </c>
+      <c r="H45">
+        <v>145</v>
+      </c>
+      <c r="I45">
+        <v>100.1</v>
+      </c>
+      <c r="J45">
+        <v>79.7</v>
+      </c>
+      <c r="K45">
+        <v>148</v>
+      </c>
+      <c r="L45">
+        <v>103.2</v>
+      </c>
+      <c r="M45">
+        <v>79.8</v>
+      </c>
+      <c r="N45">
+        <v>140.9</v>
+      </c>
+      <c r="O45">
+        <v>104.8</v>
+      </c>
+      <c r="P45">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="Q45">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="R45">
+        <v>103.5</v>
+      </c>
+      <c r="S45">
+        <v>74.2</v>
+      </c>
+      <c r="T45">
+        <v>59</v>
+      </c>
+      <c r="U45">
+        <v>1353</v>
+      </c>
+      <c r="V45">
+        <v>1274</v>
+      </c>
+      <c r="W45">
+        <v>0.95</v>
+      </c>
+      <c r="X45">
+        <v>1.05</v>
+      </c>
+      <c r="Y45">
+        <v>3.2</v>
+      </c>
+      <c r="Z45">
+        <v>3.06</v>
+      </c>
+      <c r="AA45">
+        <v>4.25</v>
+      </c>
+      <c r="AB45">
+        <v>0.77</v>
+      </c>
+      <c r="AC45">
+        <v>2.59</v>
+      </c>
+      <c r="AD45">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46">
+        <v>21.116411200000002</v>
+      </c>
+      <c r="D46">
+        <v>86.8</v>
+      </c>
+      <c r="E46">
+        <v>129.5</v>
+      </c>
+      <c r="F46">
+        <v>88.5</v>
+      </c>
+      <c r="G46">
+        <v>61.5</v>
+      </c>
+      <c r="H46">
+        <v>120</v>
+      </c>
+      <c r="I46">
+        <v>87.3</v>
+      </c>
+      <c r="J46">
+        <v>77.2</v>
+      </c>
+      <c r="K46">
+        <v>122</v>
+      </c>
+      <c r="L46">
+        <v>85.9</v>
+      </c>
+      <c r="M46">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N46">
+        <v>142.9</v>
+      </c>
+      <c r="O46">
+        <v>92.8</v>
+      </c>
+      <c r="P46">
+        <v>79.5</v>
+      </c>
+      <c r="Q46">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="R46">
+        <v>93.1</v>
+      </c>
+      <c r="S46">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="T46">
+        <v>67</v>
+      </c>
+      <c r="U46">
+        <v>1407</v>
+      </c>
+      <c r="V46">
+        <v>1348</v>
+      </c>
+      <c r="W46">
+        <v>1.17</v>
+      </c>
+      <c r="X46">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>3.1</v>
+      </c>
+      <c r="Z46">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA46">
+        <v>4.93</v>
+      </c>
+      <c r="AB46">
+        <v>1.33</v>
+      </c>
+      <c r="AC46">
+        <v>2.81</v>
+      </c>
+      <c r="AD46">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47">
+        <v>20.854138639999999</v>
+      </c>
+      <c r="D47">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>115</v>
+      </c>
+      <c r="F47">
+        <v>67</v>
+      </c>
+      <c r="G47">
+        <v>78.5</v>
+      </c>
+      <c r="H47">
+        <v>118</v>
+      </c>
+      <c r="I47">
+        <v>87.7</v>
+      </c>
+      <c r="J47">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K47">
+        <v>116</v>
+      </c>
+      <c r="L47">
+        <v>88</v>
+      </c>
+      <c r="M47">
+        <v>71</v>
+      </c>
+      <c r="N47">
+        <v>135.1</v>
+      </c>
+      <c r="O47">
+        <v>90.9</v>
+      </c>
+      <c r="P47">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="Q47">
+        <v>126.7</v>
+      </c>
+      <c r="R47">
+        <v>88.4</v>
+      </c>
+      <c r="S47">
+        <v>60.3</v>
+      </c>
+      <c r="T47">
+        <v>70</v>
+      </c>
+      <c r="U47">
+        <v>1125</v>
+      </c>
+      <c r="V47">
+        <v>1071</v>
+      </c>
+      <c r="W47">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X47">
+        <v>1.08</v>
+      </c>
+      <c r="Y47">
+        <v>0.3</v>
+      </c>
+      <c r="Z47">
+        <v>0.65</v>
+      </c>
+      <c r="AA47">
+        <v>3.74</v>
+      </c>
+      <c r="AB47">
+        <v>1.17</v>
+      </c>
+      <c r="AC47">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AD47">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48">
+        <v>22.810280500000001</v>
+      </c>
+      <c r="D48">
+        <v>71.5</v>
+      </c>
+      <c r="E48">
+        <v>126</v>
+      </c>
+      <c r="F48">
+        <v>74</v>
+      </c>
+      <c r="G48">
+        <v>93.5</v>
+      </c>
+      <c r="H48">
+        <v>122</v>
+      </c>
+      <c r="I48">
+        <v>87.6</v>
+      </c>
+      <c r="J48">
+        <v>65.5</v>
+      </c>
+      <c r="K48">
+        <v>112</v>
+      </c>
+      <c r="L48">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M48">
+        <v>57.9</v>
+      </c>
+      <c r="N48">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="O48">
+        <v>95.3</v>
+      </c>
+      <c r="P48">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="Q48">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="R48">
+        <v>92.7</v>
+      </c>
+      <c r="S48">
+        <v>65.2</v>
+      </c>
+      <c r="T48">
+        <v>77</v>
+      </c>
+      <c r="U48">
+        <v>1082</v>
+      </c>
+      <c r="V48">
+        <v>1108</v>
+      </c>
+      <c r="W48">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X48">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0.7</v>
+      </c>
+      <c r="Z48">
+        <v>0.97</v>
+      </c>
+      <c r="AA48">
+        <v>4.53</v>
+      </c>
+      <c r="AB48">
+        <v>1.65</v>
+      </c>
+      <c r="AC48">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AD48">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49">
+        <v>29.898537869999998</v>
+      </c>
+      <c r="D49">
+        <v>99.5</v>
+      </c>
+      <c r="E49">
+        <v>132.5</v>
+      </c>
+      <c r="F49">
+        <v>85</v>
+      </c>
+      <c r="G49">
+        <v>73</v>
+      </c>
+      <c r="H49">
+        <v>135</v>
+      </c>
+      <c r="I49">
+        <v>102.2</v>
+      </c>
+      <c r="J49">
+        <v>84.2</v>
+      </c>
+      <c r="K49">
+        <v>137</v>
+      </c>
+      <c r="L49">
+        <v>95.2</v>
+      </c>
+      <c r="M49">
+        <v>86</v>
+      </c>
+      <c r="N49">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="O49">
+        <v>103.7</v>
+      </c>
+      <c r="P49">
+        <v>86.5</v>
+      </c>
+      <c r="Q49">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="R49">
+        <v>107.2</v>
+      </c>
+      <c r="S49">
+        <v>83.9</v>
+      </c>
+      <c r="T49">
+        <v>69</v>
+      </c>
+      <c r="U49">
+        <v>1411</v>
+      </c>
+      <c r="V49">
+        <v>1404</v>
+      </c>
+      <c r="W49">
+        <v>1.17</v>
+      </c>
+      <c r="X49">
+        <v>1.04</v>
+      </c>
+      <c r="Y49">
+        <v>10.1</v>
+      </c>
+      <c r="Z49">
+        <v>1.02</v>
+      </c>
+      <c r="AA49">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>3.59</v>
+      </c>
+      <c r="AD49">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C50">
+        <v>23.844954649999998</v>
+      </c>
+      <c r="D50">
+        <v>89.5</v>
+      </c>
+      <c r="E50">
+        <v>171.5</v>
+      </c>
+      <c r="F50">
+        <v>94</v>
+      </c>
+      <c r="G50">
+        <v>74.5</v>
+      </c>
+      <c r="H50">
+        <v>152</v>
+      </c>
+      <c r="I50">
+        <v>112.6</v>
+      </c>
+      <c r="J50">
+        <v>90.3</v>
+      </c>
+      <c r="K50">
+        <v>157</v>
+      </c>
+      <c r="L50">
+        <v>116.6</v>
+      </c>
+      <c r="M50">
+        <v>92.6</v>
+      </c>
+      <c r="N50">
+        <v>180</v>
+      </c>
+      <c r="O50">
+        <v>111.1</v>
+      </c>
+      <c r="P50">
+        <v>82.4</v>
+      </c>
+      <c r="Q50">
+        <v>190.9</v>
+      </c>
+      <c r="R50">
+        <v>116.2</v>
+      </c>
+      <c r="S50">
+        <v>89.2</v>
+      </c>
+      <c r="T50">
+        <v>69</v>
+      </c>
+      <c r="U50">
+        <v>1707</v>
+      </c>
+      <c r="V50">
+        <v>1669</v>
+      </c>
+      <c r="W50">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X50">
+        <v>1.22</v>
+      </c>
+      <c r="Y50">
+        <v>22.4</v>
+      </c>
+      <c r="Z50">
+        <v>0.82</v>
+      </c>
+      <c r="AA50">
+        <v>4.96</v>
+      </c>
+      <c r="AB50">
+        <v>1.52</v>
+      </c>
+      <c r="AC50">
+        <v>2.91</v>
+      </c>
+      <c r="AD50">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51">
+        <v>22.110430439999998</v>
+      </c>
+      <c r="D51">
+        <v>72</v>
+      </c>
+      <c r="E51">
+        <v>113.5</v>
+      </c>
+      <c r="F51">
+        <v>82</v>
+      </c>
+      <c r="G51">
+        <v>80.5</v>
+      </c>
+      <c r="H51">
+        <v>116</v>
+      </c>
+      <c r="I51">
+        <v>79.8</v>
+      </c>
+      <c r="J51">
+        <v>63.4</v>
+      </c>
+      <c r="K51">
+        <v>113</v>
+      </c>
+      <c r="L51">
+        <v>78.5</v>
+      </c>
+      <c r="M51">
+        <v>67.7</v>
+      </c>
+      <c r="N51">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="O51">
+        <v>93.5</v>
+      </c>
+      <c r="P51">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="Q51">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="R51">
+        <v>89.9</v>
+      </c>
+      <c r="S51">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="T51">
+        <v>71</v>
+      </c>
+      <c r="U51">
+        <v>1255</v>
+      </c>
+      <c r="V51">
+        <v>1286</v>
+      </c>
+      <c r="W51">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="X51">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0.9</v>
+      </c>
+      <c r="Z51">
+        <v>0.84</v>
+      </c>
+      <c r="AA51">
+        <v>3.99</v>
+      </c>
+      <c r="AB51">
+        <v>1.63</v>
+      </c>
+      <c r="AC51">
+        <v>1.86</v>
+      </c>
+      <c r="AD51">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52">
+        <v>23.193884390000001</v>
+      </c>
+      <c r="D52">
+        <v>84.3</v>
+      </c>
+      <c r="E52">
+        <v>110</v>
+      </c>
+      <c r="F52">
+        <v>72</v>
+      </c>
+      <c r="G52">
+        <v>64</v>
+      </c>
+      <c r="H52">
+        <v>118</v>
+      </c>
+      <c r="I52">
+        <v>90</v>
+      </c>
+      <c r="J52">
+        <v>68.7</v>
+      </c>
+      <c r="K52">
+        <v>124</v>
+      </c>
+      <c r="L52">
+        <v>91.9</v>
+      </c>
+      <c r="M52">
+        <v>71.8</v>
+      </c>
+      <c r="N52">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="O52">
+        <v>95.3</v>
+      </c>
+      <c r="P52">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="Q52">
+        <v>132.4</v>
+      </c>
+      <c r="R52">
+        <v>92.3</v>
+      </c>
+      <c r="S52">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="T52">
+        <v>73</v>
+      </c>
+      <c r="U52">
+        <v>1410</v>
+      </c>
+      <c r="V52">
+        <v>1433</v>
+      </c>
+      <c r="W52">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X52">
+        <v>1.06</v>
+      </c>
+      <c r="Y52">
+        <v>2.4</v>
+      </c>
+      <c r="Z52">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AA52">
+        <v>5.49</v>
+      </c>
+      <c r="AB52">
+        <v>0.97</v>
+      </c>
+      <c r="AC52">
+        <v>3.41</v>
+      </c>
+      <c r="AD52">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53">
+        <v>26.5625</v>
+      </c>
+      <c r="D53">
+        <v>87</v>
+      </c>
+      <c r="E53">
+        <v>120</v>
+      </c>
+      <c r="F53">
+        <v>73.5</v>
+      </c>
+      <c r="G53">
+        <v>74</v>
+      </c>
+      <c r="H53">
+        <v>107</v>
+      </c>
+      <c r="I53">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="J53">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="K53">
+        <v>112</v>
+      </c>
+      <c r="L53">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="M53">
+        <v>65.2</v>
+      </c>
+      <c r="N53">
+        <v>119.9</v>
+      </c>
+      <c r="O53">
+        <v>83.4</v>
+      </c>
+      <c r="P53">
+        <v>65.7</v>
+      </c>
+      <c r="Q53">
+        <v>117.3</v>
+      </c>
+      <c r="R53">
+        <v>79.3</v>
+      </c>
+      <c r="S53">
+        <v>61.5</v>
+      </c>
+      <c r="T53">
+        <v>76</v>
+      </c>
+      <c r="U53">
+        <v>1331</v>
+      </c>
+      <c r="V53">
+        <v>1327</v>
+      </c>
+      <c r="W53">
+        <v>1.07</v>
+      </c>
+      <c r="X53">
+        <v>1.04</v>
+      </c>
+      <c r="Y53">
+        <v>14.3</v>
+      </c>
+      <c r="Z53">
+        <v>4.49</v>
+      </c>
+      <c r="AA53">
+        <v>4.8</v>
+      </c>
+      <c r="AB53">
+        <v>0.69</v>
+      </c>
+      <c r="AC53">
+        <v>2.65</v>
+      </c>
+      <c r="AD53">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54">
+        <v>27.024410880000001</v>
+      </c>
+      <c r="D54">
+        <v>94</v>
+      </c>
+      <c r="E54">
+        <v>124</v>
+      </c>
+      <c r="F54">
+        <v>78</v>
+      </c>
+      <c r="G54">
+        <v>76.5</v>
+      </c>
+      <c r="H54">
+        <v>129</v>
+      </c>
+      <c r="I54">
+        <v>100.6</v>
+      </c>
+      <c r="J54">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="K54">
+        <v>128</v>
+      </c>
+      <c r="L54">
+        <v>98.7</v>
+      </c>
+      <c r="M54">
+        <v>79.3</v>
+      </c>
+      <c r="N54">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="O54">
+        <v>91.1</v>
+      </c>
+      <c r="P54">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="Q54">
+        <v>135.1</v>
+      </c>
+      <c r="R54">
+        <v>96.1</v>
+      </c>
+      <c r="S54">
+        <v>72.5</v>
+      </c>
+      <c r="T54">
+        <v>88</v>
+      </c>
+      <c r="U54">
+        <v>1747</v>
+      </c>
+      <c r="V54">
+        <v>1763</v>
+      </c>
+      <c r="W54">
+        <v>1.08</v>
+      </c>
+      <c r="X54">
+        <v>1.05</v>
+      </c>
+      <c r="Y54">
+        <v>23.3</v>
+      </c>
+      <c r="Z54">
+        <v>0.99</v>
+      </c>
+      <c r="AA54">
+        <v>5.27</v>
+      </c>
+      <c r="AB54">
+        <v>0.95</v>
+      </c>
+      <c r="AC54">
+        <v>3.69</v>
+      </c>
+      <c r="AD54">
+        <v>6.87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C55">
+        <v>20.285370950000001</v>
+      </c>
+      <c r="D55">
+        <v>86</v>
+      </c>
+      <c r="E55">
+        <v>117.5</v>
+      </c>
+      <c r="F55">
+        <v>76.5</v>
+      </c>
+      <c r="G55">
+        <v>78</v>
+      </c>
+      <c r="H55">
+        <v>97</v>
+      </c>
+      <c r="I55">
+        <v>71.5</v>
+      </c>
+      <c r="J55">
+        <v>63</v>
+      </c>
+      <c r="K55">
+        <v>97</v>
+      </c>
+      <c r="L55">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M55">
+        <v>62.6</v>
+      </c>
+      <c r="N55">
+        <v>114.5</v>
+      </c>
+      <c r="O55">
+        <v>75.7</v>
+      </c>
+      <c r="P55">
+        <v>57.9</v>
+      </c>
+      <c r="Q55">
+        <v>114.4</v>
+      </c>
+      <c r="R55">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="S55">
+        <v>57.1</v>
+      </c>
+      <c r="T55">
+        <v>71</v>
+      </c>
+      <c r="U55">
+        <v>1095</v>
+      </c>
+      <c r="V55">
+        <v>1060</v>
+      </c>
+      <c r="W55">
+        <v>1.19</v>
+      </c>
+      <c r="X55">
+        <v>1.18</v>
+      </c>
+      <c r="Y55">
+        <v>13.3</v>
+      </c>
+      <c r="Z55">
+        <v>0.83</v>
+      </c>
+      <c r="AA55">
+        <v>4.71</v>
+      </c>
+      <c r="AB55">
+        <v>1.29</v>
+      </c>
+      <c r="AC55">
+        <v>2.97</v>
+      </c>
+      <c r="AD55">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C56">
+        <v>23.025760519999999</v>
+      </c>
+      <c r="D56">
+        <v>80.5</v>
+      </c>
+      <c r="E56">
+        <v>153</v>
+      </c>
+      <c r="F56">
+        <v>79</v>
+      </c>
+      <c r="G56">
+        <v>58.5</v>
+      </c>
+      <c r="H56">
+        <v>136</v>
+      </c>
+      <c r="I56">
+        <v>107</v>
+      </c>
+      <c r="J56">
+        <v>78.5</v>
+      </c>
+      <c r="K56">
+        <v>134</v>
+      </c>
+      <c r="L56">
+        <v>102.9</v>
+      </c>
+      <c r="M56">
+        <v>78</v>
+      </c>
+      <c r="N56">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="O56">
+        <v>110.4</v>
+      </c>
+      <c r="P56">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="Q56">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="R56">
+        <v>113.1</v>
+      </c>
+      <c r="S56">
+        <v>76.5</v>
+      </c>
+      <c r="T56">
+        <v>65</v>
+      </c>
+      <c r="U56">
+        <v>1741</v>
+      </c>
+      <c r="V56">
+        <v>1699</v>
+      </c>
+      <c r="W56">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X56">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>5.3</v>
+      </c>
+      <c r="Z56">
+        <v>0.95</v>
+      </c>
+      <c r="AA56">
+        <v>5.13</v>
+      </c>
+      <c r="AB56">
+        <v>1.42</v>
+      </c>
+      <c r="AC56">
+        <v>3.23</v>
+      </c>
+      <c r="AD56">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57">
+        <v>20.449826989999998</v>
+      </c>
+      <c r="D57">
+        <v>78</v>
+      </c>
+      <c r="E57">
+        <v>117.5</v>
+      </c>
+      <c r="F57">
+        <v>70.5</v>
+      </c>
+      <c r="G57">
+        <v>83.5</v>
+      </c>
+      <c r="H57">
+        <v>102</v>
+      </c>
+      <c r="I57">
+        <v>77.3</v>
+      </c>
+      <c r="J57">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="K57">
+        <v>107</v>
+      </c>
+      <c r="L57">
+        <v>79.8</v>
+      </c>
+      <c r="M57">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="N57">
+        <v>123</v>
+      </c>
+      <c r="O57">
+        <v>82.8</v>
+      </c>
+      <c r="P57">
+        <v>63.6</v>
+      </c>
+      <c r="Q57">
+        <v>119.5</v>
+      </c>
+      <c r="R57">
+        <v>84.7</v>
+      </c>
+      <c r="S57">
+        <v>62.6</v>
+      </c>
+      <c r="T57">
+        <v>64</v>
+      </c>
+      <c r="U57">
+        <v>1198</v>
+      </c>
+      <c r="V57">
+        <v>1261</v>
+      </c>
+      <c r="W57">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X57">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>3.2</v>
+      </c>
+      <c r="Z57">
+        <v>0.84</v>
+      </c>
+      <c r="AA57">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="AB57">
+        <v>1.19</v>
+      </c>
+      <c r="AC57">
+        <v>3.21</v>
+      </c>
+      <c r="AD57">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58">
+        <v>25.653666050000002</v>
+      </c>
+      <c r="D58">
+        <v>87.1</v>
+      </c>
+      <c r="E58">
+        <v>117</v>
+      </c>
+      <c r="F58">
+        <v>83</v>
+      </c>
+      <c r="G58">
+        <v>64.5</v>
+      </c>
+      <c r="H58">
+        <v>123</v>
+      </c>
+      <c r="I58">
+        <v>97.1</v>
+      </c>
+      <c r="J58">
+        <v>78.8</v>
+      </c>
+      <c r="K58">
+        <v>121</v>
+      </c>
+      <c r="L58">
+        <v>96</v>
+      </c>
+      <c r="M58">
+        <v>81.7</v>
+      </c>
+      <c r="N58">
+        <v>127.4</v>
+      </c>
+      <c r="O58">
+        <v>92.1</v>
+      </c>
+      <c r="P58">
+        <v>73.3</v>
+      </c>
+      <c r="Q58">
+        <v>126</v>
+      </c>
+      <c r="R58">
+        <v>88.5</v>
+      </c>
+      <c r="S58">
+        <v>67.2</v>
+      </c>
+      <c r="T58">
+        <v>69</v>
+      </c>
+      <c r="U58">
+        <v>1460</v>
+      </c>
+      <c r="V58">
+        <v>1377</v>
+      </c>
+      <c r="W58">
+        <v>1.03</v>
+      </c>
+      <c r="X58">
+        <v>1.02</v>
+      </c>
+      <c r="Y58">
+        <v>3.8</v>
+      </c>
+      <c r="Z58">
+        <v>1.45</v>
+      </c>
+      <c r="AA58">
+        <v>7.27</v>
+      </c>
+      <c r="AB58">
+        <v>1.51</v>
+      </c>
+      <c r="AC58">
+        <v>4.99</v>
+      </c>
+      <c r="AD58">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59">
+        <v>28.692589170000002</v>
+      </c>
+      <c r="D59">
+        <v>92</v>
+      </c>
+      <c r="E59">
+        <v>142</v>
+      </c>
+      <c r="F59">
+        <v>94.5</v>
+      </c>
+      <c r="G59">
+        <v>69.5</v>
+      </c>
+      <c r="H59">
+        <v>133</v>
+      </c>
+      <c r="I59">
+        <v>107.9</v>
+      </c>
+      <c r="J59">
+        <v>87.5</v>
+      </c>
+      <c r="K59">
+        <v>132</v>
+      </c>
+      <c r="L59">
+        <v>101</v>
+      </c>
+      <c r="M59">
+        <v>92.7</v>
+      </c>
+      <c r="N59">
+        <v>137.4</v>
+      </c>
+      <c r="O59">
+        <v>99.7</v>
+      </c>
+      <c r="P59">
+        <v>74.2</v>
+      </c>
+      <c r="Q59">
+        <v>147.1</v>
+      </c>
+      <c r="R59">
+        <v>100.2</v>
+      </c>
+      <c r="S59">
+        <v>74</v>
+      </c>
+      <c r="T59">
+        <v>76</v>
+      </c>
+      <c r="U59">
+        <v>1660</v>
+      </c>
+      <c r="V59">
+        <v>1595</v>
+      </c>
+      <c r="W59">
+        <v>1.03</v>
+      </c>
+      <c r="X59">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>4.3</v>
+      </c>
+      <c r="Z59">
+        <v>1.86</v>
+      </c>
+      <c r="AA59">
+        <v>4.8</v>
+      </c>
+      <c r="AB59">
+        <v>0.95</v>
+      </c>
+      <c r="AC59">
+        <v>3.33</v>
+      </c>
+      <c r="AD59">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60">
+        <v>19.363258259999999</v>
+      </c>
+      <c r="D60">
+        <v>68.2</v>
+      </c>
+      <c r="E60">
+        <v>102.5</v>
+      </c>
+      <c r="F60">
+        <v>68.5</v>
+      </c>
+      <c r="G60">
+        <v>69</v>
+      </c>
+      <c r="H60">
+        <v>122</v>
+      </c>
+      <c r="I60">
+        <v>85.7</v>
+      </c>
+      <c r="J60">
+        <v>70.8</v>
+      </c>
+      <c r="K60">
+        <v>122</v>
+      </c>
+      <c r="L60">
+        <v>91.6</v>
+      </c>
+      <c r="M60">
+        <v>74.8</v>
+      </c>
+      <c r="N60">
+        <v>124.5</v>
+      </c>
+      <c r="O60">
+        <v>92.6</v>
+      </c>
+      <c r="P60">
+        <v>67.3</v>
+      </c>
+      <c r="Q60">
+        <v>130.1</v>
+      </c>
+      <c r="R60">
+        <v>90.3</v>
+      </c>
+      <c r="S60">
+        <v>65.2</v>
+      </c>
+      <c r="T60">
+        <v>62</v>
+      </c>
+      <c r="U60">
+        <v>1523</v>
+      </c>
+      <c r="V60">
+        <v>1506</v>
+      </c>
+      <c r="W60">
+        <v>1.02</v>
+      </c>
+      <c r="X60">
+        <v>1.07</v>
+      </c>
+      <c r="Y60">
+        <v>2.4</v>
+      </c>
+      <c r="Z60">
+        <v>1.02</v>
+      </c>
+      <c r="AA60">
+        <v>5.54</v>
+      </c>
+      <c r="AB60">
+        <v>1.78</v>
+      </c>
+      <c r="AC60">
+        <v>3.06</v>
+      </c>
+      <c r="AD60">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61">
+        <v>27.160686500000001</v>
+      </c>
+      <c r="D61">
+        <v>90.2</v>
+      </c>
+      <c r="E61">
+        <v>121.5</v>
+      </c>
+      <c r="F61">
+        <v>96.5</v>
+      </c>
+      <c r="G61">
+        <v>95.5</v>
+      </c>
+      <c r="H61">
+        <v>123</v>
+      </c>
+      <c r="I61">
+        <v>95.9</v>
+      </c>
+      <c r="J61">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="K61">
+        <v>119</v>
+      </c>
+      <c r="L61">
+        <v>93.8</v>
+      </c>
+      <c r="M61">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="N61">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="O61">
+        <v>97.8</v>
+      </c>
+      <c r="P61">
+        <v>75.8</v>
+      </c>
+      <c r="Q61">
+        <v>126.9</v>
+      </c>
+      <c r="R61">
+        <v>99.8</v>
+      </c>
+      <c r="S61">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="T61">
+        <v>76</v>
+      </c>
+      <c r="U61">
+        <v>1349</v>
+      </c>
+      <c r="V61">
+        <v>1345</v>
+      </c>
+      <c r="W61">
+        <v>1.05</v>
+      </c>
+      <c r="X61">
+        <v>1.03</v>
+      </c>
+      <c r="Y61">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z61">
+        <v>2.15</v>
+      </c>
+      <c r="AA61">
+        <v>7.25</v>
+      </c>
+      <c r="AB61">
+        <v>1.76</v>
+      </c>
+      <c r="AC61">
+        <v>4.74</v>
+      </c>
+      <c r="AD61">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C62">
+        <v>23.3051025</v>
+      </c>
+      <c r="D62">
+        <v>75.5</v>
+      </c>
+      <c r="E62">
+        <v>103</v>
+      </c>
+      <c r="F62">
+        <v>65</v>
+      </c>
+      <c r="G62">
+        <v>66.5</v>
+      </c>
+      <c r="H62">
+        <v>94</v>
+      </c>
+      <c r="I62">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="J62">
+        <v>61.4</v>
+      </c>
+      <c r="K62">
+        <v>104</v>
+      </c>
+      <c r="L62">
+        <v>80.7</v>
+      </c>
+      <c r="M62">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="N62">
+        <v>119.7</v>
+      </c>
+      <c r="O62">
+        <v>87.1</v>
+      </c>
+      <c r="P62">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="Q62">
+        <v>119.8</v>
+      </c>
+      <c r="R62">
+        <v>85.7</v>
+      </c>
+      <c r="S62">
+        <v>63.2</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>1243</v>
+      </c>
+      <c r="V62">
+        <v>1279</v>
+      </c>
+      <c r="W62">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X62">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y62">
+        <v>1.8</v>
+      </c>
+      <c r="Z62">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>4.99</v>
+      </c>
+      <c r="AB62">
+        <v>1.26</v>
+      </c>
+      <c r="AC62">
+        <v>2.97</v>
+      </c>
+      <c r="AD62">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C63">
+        <v>22.310668079999999</v>
+      </c>
+      <c r="D63">
+        <v>86.5</v>
+      </c>
+      <c r="E63">
+        <v>119.5</v>
+      </c>
+      <c r="F63">
+        <v>81</v>
+      </c>
+      <c r="G63">
+        <v>63.5</v>
+      </c>
+      <c r="H63">
+        <v>115</v>
+      </c>
+      <c r="I63">
+        <v>88.7</v>
+      </c>
+      <c r="J63">
+        <v>72.7</v>
+      </c>
+      <c r="K63">
+        <v>113</v>
+      </c>
+      <c r="L63">
+        <v>77.5</v>
+      </c>
+      <c r="M63">
+        <v>67.7</v>
+      </c>
+      <c r="N63">
+        <v>130.5</v>
+      </c>
+      <c r="O63">
+        <v>90.6</v>
+      </c>
+      <c r="P63">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="Q63">
+        <v>124.3</v>
+      </c>
+      <c r="R63">
+        <v>88.4</v>
+      </c>
+      <c r="S63">
+        <v>65.5</v>
+      </c>
+      <c r="T63">
+        <v>60</v>
+      </c>
+      <c r="U63">
+        <v>1356</v>
+      </c>
+      <c r="V63">
+        <v>1361</v>
+      </c>
+      <c r="W63">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="X63">
+        <v>1.08</v>
+      </c>
+      <c r="Y63">
+        <v>6.6</v>
+      </c>
+      <c r="Z63">
+        <v>1.21</v>
+      </c>
+      <c r="AA63">
+        <v>7.87</v>
+      </c>
+      <c r="AB63">
+        <v>1.36</v>
+      </c>
+      <c r="AC63">
+        <v>5.56</v>
+      </c>
+      <c r="AD63">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C64">
+        <v>23.062024229999999</v>
+      </c>
+      <c r="D64">
+        <v>78</v>
+      </c>
+      <c r="E64">
+        <v>130</v>
+      </c>
+      <c r="F64">
+        <v>90</v>
+      </c>
+      <c r="G64">
+        <v>73</v>
+      </c>
+      <c r="H64">
+        <v>144</v>
+      </c>
+      <c r="I64">
+        <v>109.1</v>
+      </c>
+      <c r="J64">
+        <v>79.8</v>
+      </c>
+      <c r="K64">
+        <v>149</v>
+      </c>
+      <c r="L64">
+        <v>117.2</v>
+      </c>
+      <c r="M64">
+        <v>90</v>
+      </c>
+      <c r="N64">
+        <v>169.2</v>
+      </c>
+      <c r="O64">
+        <v>109.5</v>
+      </c>
+      <c r="P64">
+        <v>83</v>
+      </c>
+      <c r="Q64">
+        <v>165.4</v>
+      </c>
+      <c r="R64">
+        <v>116.5</v>
+      </c>
+      <c r="S64">
+        <v>83.1</v>
+      </c>
+      <c r="T64">
+        <v>81</v>
+      </c>
+      <c r="U64">
+        <v>1630</v>
+      </c>
+      <c r="V64">
+        <v>1557</v>
+      </c>
+      <c r="W64">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X64">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Y64">
+        <v>2.9</v>
+      </c>
+      <c r="Z64">
+        <v>1.34</v>
+      </c>
+      <c r="AA64">
+        <v>7.81</v>
+      </c>
+      <c r="AB64">
+        <v>1.88</v>
+      </c>
+      <c r="AC64">
+        <v>4.88</v>
+      </c>
+      <c r="AD64">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C65">
+        <v>28.63501325</v>
+      </c>
+      <c r="D65">
+        <v>106.8</v>
+      </c>
+      <c r="E65">
+        <v>118</v>
+      </c>
+      <c r="F65">
+        <v>72.5</v>
+      </c>
+      <c r="G65">
+        <v>61</v>
+      </c>
+      <c r="H65">
+        <v>106</v>
+      </c>
+      <c r="I65">
+        <v>82.6</v>
+      </c>
+      <c r="J65">
+        <v>63</v>
+      </c>
+      <c r="K65">
+        <v>112</v>
+      </c>
+      <c r="L65">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="M65">
+        <v>66.7</v>
+      </c>
+      <c r="N65">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="O65">
+        <v>89.3</v>
+      </c>
+      <c r="P65">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="Q65">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="R65">
+        <v>90.4</v>
+      </c>
+      <c r="S65">
+        <v>72.8</v>
+      </c>
+      <c r="T65">
+        <v>178</v>
+      </c>
+      <c r="U65">
+        <v>1251</v>
+      </c>
+      <c r="V65">
+        <v>1188</v>
+      </c>
+      <c r="W65">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X65">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>7.3</v>
+      </c>
+      <c r="Z65">
+        <v>1.69</v>
+      </c>
+      <c r="AA65">
+        <v>5.62</v>
+      </c>
+      <c r="AB65">
+        <v>1.03</v>
+      </c>
+      <c r="AC65">
+        <v>3.86</v>
+      </c>
+      <c r="AD65">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66">
+        <v>18.84444444</v>
+      </c>
+      <c r="D66">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E66">
+        <v>130.5</v>
+      </c>
+      <c r="F66">
+        <v>87.5</v>
+      </c>
+      <c r="G66">
+        <v>89.5</v>
+      </c>
+      <c r="H66">
+        <v>107</v>
+      </c>
+      <c r="I66">
+        <v>84.3</v>
+      </c>
+      <c r="J66">
+        <v>59.1</v>
+      </c>
+      <c r="K66">
+        <v>111</v>
+      </c>
+      <c r="L66">
+        <v>90.1</v>
+      </c>
+      <c r="M66">
+        <v>67.3</v>
+      </c>
+      <c r="N66">
+        <v>123.4</v>
+      </c>
+      <c r="O66">
+        <v>88.1</v>
+      </c>
+      <c r="P66">
+        <v>65.7</v>
+      </c>
+      <c r="Q66">
+        <v>125.7</v>
+      </c>
+      <c r="R66">
+        <v>93</v>
+      </c>
+      <c r="S66">
+        <v>70.3</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>1284</v>
+      </c>
+      <c r="V66">
+        <v>1443</v>
+      </c>
+      <c r="W66">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X66">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>6.3</v>
+      </c>
+      <c r="Z66">
+        <v>0.61</v>
+      </c>
+      <c r="AA66">
+        <v>5.89</v>
+      </c>
+      <c r="AB66">
+        <v>1.86</v>
+      </c>
+      <c r="AC66">
+        <v>3.35</v>
+      </c>
+      <c r="AD66">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67">
+        <v>19.9462501</v>
+      </c>
+      <c r="D67">
+        <v>71.3</v>
+      </c>
+      <c r="E67">
+        <v>138.5</v>
+      </c>
+      <c r="F67">
+        <v>84</v>
+      </c>
+      <c r="G67">
+        <v>83</v>
+      </c>
+      <c r="H67">
+        <v>106</v>
+      </c>
+      <c r="I67">
+        <v>77.7</v>
+      </c>
+      <c r="J67">
+        <v>59.5</v>
+      </c>
+      <c r="K67">
+        <v>110</v>
+      </c>
+      <c r="L67">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M67">
+        <v>62.7</v>
+      </c>
+      <c r="N67">
+        <v>124.1</v>
+      </c>
+      <c r="O67">
+        <v>74.5</v>
+      </c>
+      <c r="P67">
+        <v>57.4</v>
+      </c>
+      <c r="Q67">
+        <v>110.9</v>
+      </c>
+      <c r="R67">
+        <v>77.7</v>
+      </c>
+      <c r="S67">
+        <v>56.1</v>
+      </c>
+      <c r="T67">
+        <v>72</v>
+      </c>
+      <c r="U67">
+        <v>1131</v>
+      </c>
+      <c r="V67">
+        <v>1143</v>
+      </c>
+      <c r="W67">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X67">
+        <v>1.01</v>
+      </c>
+      <c r="Y67">
+        <v>0.8</v>
+      </c>
+      <c r="Z67">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>5.64</v>
+      </c>
+      <c r="AB67">
+        <v>1.7</v>
+      </c>
+      <c r="AC67">
+        <v>3.44</v>
+      </c>
+      <c r="AD67">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68">
+        <v>25.610862139999998</v>
+      </c>
+      <c r="D68">
+        <v>86</v>
+      </c>
+      <c r="E68">
+        <v>128.5</v>
+      </c>
+      <c r="F68">
+        <v>79.5</v>
+      </c>
+      <c r="G68">
+        <v>76.5</v>
+      </c>
+      <c r="H68">
+        <v>104</v>
+      </c>
+      <c r="I68">
+        <v>80.7</v>
+      </c>
+      <c r="J68">
+        <v>62.5</v>
+      </c>
+      <c r="K68">
+        <v>109</v>
+      </c>
+      <c r="L68">
+        <v>82.1</v>
+      </c>
+      <c r="M68">
+        <v>68.7</v>
+      </c>
+      <c r="N68">
+        <v>122.8</v>
+      </c>
+      <c r="O68">
+        <v>86</v>
+      </c>
+      <c r="P68">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="Q68">
+        <v>127.2</v>
+      </c>
+      <c r="R68">
+        <v>80</v>
+      </c>
+      <c r="S68">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="T68">
+        <v>77</v>
+      </c>
+      <c r="U68">
+        <v>1207</v>
+      </c>
+      <c r="V68">
+        <v>1274</v>
+      </c>
+      <c r="W68">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X68">
+        <v>1.17</v>
+      </c>
+      <c r="Y68">
+        <v>1.7</v>
+      </c>
+      <c r="Z68">
+        <v>1.02</v>
+      </c>
+      <c r="AA68">
+        <v>6.54</v>
+      </c>
+      <c r="AB68">
+        <v>1.45</v>
+      </c>
+      <c r="AC68">
+        <v>4.42</v>
+      </c>
+      <c r="AD68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69">
+        <v>19.459460400000001</v>
+      </c>
+      <c r="D69">
+        <v>74.2</v>
+      </c>
+      <c r="E69">
+        <v>111</v>
+      </c>
+      <c r="F69">
+        <v>71</v>
+      </c>
+      <c r="G69">
+        <v>63</v>
+      </c>
+      <c r="H69">
+        <v>107</v>
+      </c>
+      <c r="I69">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J69">
+        <v>65</v>
+      </c>
+      <c r="K69">
+        <v>103</v>
+      </c>
+      <c r="L69">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="M69">
+        <v>63.8</v>
+      </c>
+      <c r="N69">
+        <v>110.5</v>
+      </c>
+      <c r="O69">
+        <v>81</v>
+      </c>
+      <c r="P69">
+        <v>56</v>
+      </c>
+      <c r="Q69">
+        <v>115.5</v>
+      </c>
+      <c r="R69">
+        <v>88.7</v>
+      </c>
+      <c r="S69">
+        <v>65.8</v>
+      </c>
+      <c r="T69">
+        <v>61</v>
+      </c>
+      <c r="U69">
+        <v>1136</v>
+      </c>
+      <c r="V69">
+        <v>1184</v>
+      </c>
+      <c r="W69">
+        <v>1.04</v>
+      </c>
+      <c r="X69">
+        <v>1.08</v>
+      </c>
+      <c r="Y69">
+        <v>1.3</v>
+      </c>
+      <c r="Z69">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="AA69">
+        <v>5.14</v>
+      </c>
+      <c r="AB69">
+        <v>1.37</v>
+      </c>
+      <c r="AC69">
+        <v>3.15</v>
+      </c>
+      <c r="AD69">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70">
+        <v>21.19068682</v>
+      </c>
+      <c r="D70">
+        <v>78</v>
+      </c>
+      <c r="E70">
+        <v>110</v>
+      </c>
+      <c r="F70">
+        <v>62</v>
+      </c>
+      <c r="G70">
+        <v>69.5</v>
+      </c>
+      <c r="H70">
+        <v>104</v>
+      </c>
+      <c r="I70">
+        <v>76</v>
+      </c>
+      <c r="J70">
+        <v>55.6</v>
+      </c>
+      <c r="K70">
+        <v>99</v>
+      </c>
+      <c r="L70">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="M70">
+        <v>53.2</v>
+      </c>
+      <c r="N70">
+        <v>130.5</v>
+      </c>
+      <c r="O70">
+        <v>91.3</v>
+      </c>
+      <c r="P70">
+        <v>72.7</v>
+      </c>
+      <c r="Q70">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="R70">
+        <v>93.8</v>
+      </c>
+      <c r="S70">
+        <v>71.5</v>
+      </c>
+      <c r="T70">
+        <v>68</v>
+      </c>
+      <c r="U70">
+        <v>1326</v>
+      </c>
+      <c r="V70">
+        <v>1327</v>
+      </c>
+      <c r="W70">
+        <v>1.26</v>
+      </c>
+      <c r="X70">
+        <v>1.26</v>
+      </c>
+      <c r="Y70">
+        <v>1.9</v>
+      </c>
+      <c r="Z70">
+        <v>1.07</v>
+      </c>
+      <c r="AA70">
+        <v>6.29</v>
+      </c>
+      <c r="AB70">
+        <v>1.68</v>
+      </c>
+      <c r="AC70">
+        <v>3.64</v>
+      </c>
+      <c r="AD70">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71">
+        <v>23.764018449999998</v>
+      </c>
+      <c r="D71">
+        <v>82</v>
+      </c>
+      <c r="E71">
+        <v>122.5</v>
+      </c>
+      <c r="F71">
+        <v>71</v>
+      </c>
+      <c r="G71">
+        <v>73.5</v>
+      </c>
+      <c r="H71">
+        <v>103</v>
+      </c>
+      <c r="I71">
+        <v>78.8</v>
+      </c>
+      <c r="J71">
+        <v>52.8</v>
+      </c>
+      <c r="K71">
+        <v>107</v>
+      </c>
+      <c r="L71">
+        <v>72.7</v>
+      </c>
+      <c r="M71">
+        <v>63.4</v>
+      </c>
+      <c r="N71">
+        <v>121.1</v>
+      </c>
+      <c r="O71">
+        <v>84.1</v>
+      </c>
+      <c r="P71">
+        <v>62.7</v>
+      </c>
+      <c r="Q71">
+        <v>114.5</v>
+      </c>
+      <c r="R71">
+        <v>74.2</v>
+      </c>
+      <c r="S71">
+        <v>59.8</v>
+      </c>
+      <c r="T71">
+        <v>68</v>
+      </c>
+      <c r="U71">
+        <v>1048</v>
+      </c>
+      <c r="V71">
+        <v>886</v>
+      </c>
+      <c r="W71">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="X71">
+        <v>1.07</v>
+      </c>
+      <c r="Y71">
+        <v>1.7</v>
+      </c>
+      <c r="Z71">
+        <v>1.3</v>
+      </c>
+      <c r="AA71">
+        <v>5.31</v>
+      </c>
+      <c r="AB71">
+        <v>1.43</v>
+      </c>
+      <c r="AC71">
+        <v>3.06</v>
+      </c>
+      <c r="AD71">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72">
+        <v>26.18650946</v>
+      </c>
+      <c r="D72">
+        <v>88.1</v>
+      </c>
+      <c r="E72">
+        <v>121</v>
+      </c>
+      <c r="F72">
+        <v>78</v>
+      </c>
+      <c r="G72">
+        <v>68</v>
+      </c>
+      <c r="H72">
+        <v>113</v>
+      </c>
+      <c r="I72">
+        <v>83.7</v>
+      </c>
+      <c r="J72">
+        <v>67.2</v>
+      </c>
+      <c r="K72">
+        <v>110</v>
+      </c>
+      <c r="L72">
+        <v>90</v>
+      </c>
+      <c r="M72">
+        <v>75.7</v>
+      </c>
+      <c r="N72">
+        <v>131.1</v>
+      </c>
+      <c r="O72">
+        <v>94.5</v>
+      </c>
+      <c r="P72">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="Q72">
+        <v>129.6</v>
+      </c>
+      <c r="R72">
+        <v>83.8</v>
+      </c>
+      <c r="S72">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="T72">
+        <v>76</v>
+      </c>
+      <c r="U72">
+        <v>1635</v>
+      </c>
+      <c r="V72">
+        <v>1525</v>
+      </c>
+      <c r="W72">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="X72">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>7.1</v>
+      </c>
+      <c r="Z72">
+        <v>0.91</v>
+      </c>
+      <c r="AA72">
+        <v>5.59</v>
+      </c>
+      <c r="AB72">
+        <v>1.39</v>
+      </c>
+      <c r="AC72">
+        <v>3.47</v>
+      </c>
+      <c r="AD72">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73">
+        <v>20.41792482</v>
+      </c>
+      <c r="D73">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="E73">
+        <v>120.5</v>
+      </c>
+      <c r="F73">
+        <v>78.5</v>
+      </c>
+      <c r="G73">
+        <v>68.5</v>
+      </c>
+      <c r="H73">
+        <v>123</v>
+      </c>
+      <c r="I73">
+        <v>95.1</v>
+      </c>
+      <c r="J73">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="K73">
+        <v>124</v>
+      </c>
+      <c r="L73">
+        <v>94.7</v>
+      </c>
+      <c r="M73">
+        <v>79</v>
+      </c>
+      <c r="N73">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="O73">
+        <v>100.2</v>
+      </c>
+      <c r="P73">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Q73">
+        <v>127.7</v>
+      </c>
+      <c r="R73">
+        <v>94.1</v>
+      </c>
+      <c r="S73">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="T73">
+        <v>67</v>
+      </c>
+      <c r="U73">
+        <v>1326</v>
+      </c>
+      <c r="V73">
+        <v>1352</v>
+      </c>
+      <c r="W73">
+        <v>1.07</v>
+      </c>
+      <c r="X73">
+        <v>1.03</v>
+      </c>
+      <c r="Y73">
+        <v>1.4</v>
+      </c>
+      <c r="Z73">
+        <v>0.71</v>
+      </c>
+      <c r="AA73">
+        <v>5.13</v>
+      </c>
+      <c r="AB73">
+        <v>1.73</v>
+      </c>
+      <c r="AC73">
+        <v>2.75</v>
+      </c>
+      <c r="AD73">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74">
+        <v>26.988307559999999</v>
+      </c>
+      <c r="D74">
+        <v>88.6</v>
+      </c>
+      <c r="E74">
+        <v>124.5</v>
+      </c>
+      <c r="F74">
+        <v>89</v>
+      </c>
+      <c r="G74">
+        <v>88</v>
+      </c>
+      <c r="H74">
+        <v>129</v>
+      </c>
+      <c r="I74">
+        <v>96.7</v>
+      </c>
+      <c r="J74">
+        <v>82.5</v>
+      </c>
+      <c r="K74">
+        <v>125</v>
+      </c>
+      <c r="L74">
+        <v>100.9</v>
+      </c>
+      <c r="M74">
+        <v>82.8</v>
+      </c>
+      <c r="N74">
+        <v>142</v>
+      </c>
+      <c r="O74">
+        <v>99.8</v>
+      </c>
+      <c r="P74">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="Q74">
+        <v>136</v>
+      </c>
+      <c r="R74">
+        <v>95.3</v>
+      </c>
+      <c r="S74">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="T74">
+        <v>80</v>
+      </c>
+      <c r="U74">
+        <v>1415</v>
+      </c>
+      <c r="V74">
+        <v>1352</v>
+      </c>
+      <c r="W74">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X74">
+        <v>1.05</v>
+      </c>
+      <c r="Y74">
+        <v>1.2</v>
+      </c>
+      <c r="Z74">
+        <v>1.27</v>
+      </c>
+      <c r="AA74">
+        <v>4.88</v>
+      </c>
+      <c r="AB74">
+        <v>1.07</v>
+      </c>
+      <c r="AC74">
+        <v>3.09</v>
+      </c>
+      <c r="AD74">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C75">
+        <v>24.837653549999999</v>
+      </c>
+      <c r="D75">
+        <v>82.2</v>
+      </c>
+      <c r="E75">
+        <v>108.5</v>
+      </c>
+      <c r="F75">
+        <v>78.5</v>
+      </c>
+      <c r="G75">
+        <v>65.5</v>
+      </c>
+      <c r="H75">
+        <v>111</v>
+      </c>
+      <c r="I75">
+        <v>92.2</v>
+      </c>
+      <c r="J75">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="K75">
+        <v>110</v>
+      </c>
+      <c r="L75">
+        <v>91.6</v>
+      </c>
+      <c r="M75">
+        <v>76</v>
+      </c>
+      <c r="N75">
+        <v>121.7</v>
+      </c>
+      <c r="O75">
+        <v>91.1</v>
+      </c>
+      <c r="P75">
+        <v>72.7</v>
+      </c>
+      <c r="Q75">
+        <v>127.9</v>
+      </c>
+      <c r="R75">
+        <v>88.6</v>
+      </c>
+      <c r="S75">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="T75">
+        <v>78</v>
+      </c>
+      <c r="U75">
+        <v>1426</v>
+      </c>
+      <c r="V75">
+        <v>1366</v>
+      </c>
+      <c r="W75">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X75">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>0.9</v>
+      </c>
+      <c r="Z75">
+        <v>1.42</v>
+      </c>
+      <c r="AA75">
+        <v>4.95</v>
+      </c>
+      <c r="AB75">
+        <v>1.25</v>
+      </c>
+      <c r="AC75">
+        <v>2.93</v>
+      </c>
+      <c r="AD75">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76">
+        <v>20.72829205</v>
+      </c>
+      <c r="D76">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E76">
+        <v>131.5</v>
+      </c>
+      <c r="F76">
+        <v>83.5</v>
+      </c>
+      <c r="G76">
+        <v>89</v>
+      </c>
+      <c r="H76">
+        <v>123</v>
+      </c>
+      <c r="I76">
+        <v>96.7</v>
+      </c>
+      <c r="J76">
+        <v>70.7</v>
+      </c>
+      <c r="K76">
+        <v>119</v>
+      </c>
+      <c r="L76">
+        <v>96</v>
+      </c>
+      <c r="M76">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="N76">
+        <v>118.6</v>
+      </c>
+      <c r="O76">
+        <v>91.3</v>
+      </c>
+      <c r="P76">
+        <v>67.2</v>
+      </c>
+      <c r="Q76">
+        <v>120.1</v>
+      </c>
+      <c r="R76">
+        <v>88.7</v>
+      </c>
+      <c r="S76">
+        <v>66.7</v>
+      </c>
+      <c r="T76">
+        <v>84</v>
+      </c>
+      <c r="U76">
+        <v>1455</v>
+      </c>
+      <c r="V76">
+        <v>1510</v>
+      </c>
+      <c r="W76">
+        <v>0.97</v>
+      </c>
+      <c r="X76">
+        <v>0.98</v>
+      </c>
+      <c r="Y76">
+        <v>0.4</v>
+      </c>
+      <c r="Z76">
+        <v>0.65</v>
+      </c>
+      <c r="AA76">
+        <v>6.25</v>
+      </c>
+      <c r="AB76">
+        <v>2.12</v>
+      </c>
+      <c r="AC76">
+        <v>3.26</v>
+      </c>
+      <c r="AD76">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77">
+        <v>19.311856970000001</v>
+      </c>
+      <c r="D77">
+        <v>74.5</v>
+      </c>
+      <c r="E77">
+        <v>139</v>
+      </c>
+      <c r="F77">
+        <v>88</v>
+      </c>
+      <c r="G77">
+        <v>78</v>
+      </c>
+      <c r="H77">
+        <v>136</v>
+      </c>
+      <c r="I77">
+        <v>111.1</v>
+      </c>
+      <c r="J77">
+        <v>84.5</v>
+      </c>
+      <c r="K77">
+        <v>134</v>
+      </c>
+      <c r="L77">
+        <v>104.3</v>
+      </c>
+      <c r="M77">
+        <v>77.8</v>
+      </c>
+      <c r="N77">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="O77">
+        <v>109.9</v>
+      </c>
+      <c r="P77">
+        <v>78.3</v>
+      </c>
+      <c r="Q77">
+        <v>153.9</v>
+      </c>
+      <c r="R77">
+        <v>107.1</v>
+      </c>
+      <c r="S77">
+        <v>72.3</v>
+      </c>
+      <c r="T77">
+        <v>69</v>
+      </c>
+      <c r="U77">
+        <v>1590</v>
+      </c>
+      <c r="V77">
+        <v>1569</v>
+      </c>
+      <c r="W77">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="X77">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="Y77">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z77">
+        <v>1.04</v>
+      </c>
+      <c r="AA77">
+        <v>3.99</v>
+      </c>
+      <c r="AB77">
+        <v>1.56</v>
+      </c>
+      <c r="AC77">
+        <v>1.97</v>
+      </c>
+      <c r="AD77">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C78">
+        <v>24.242147549999999</v>
+      </c>
+      <c r="D78">
+        <v>81.5</v>
+      </c>
+      <c r="E78">
+        <v>121</v>
+      </c>
+      <c r="F78">
+        <v>84</v>
+      </c>
+      <c r="G78">
+        <v>74.5</v>
+      </c>
+      <c r="H78">
+        <v>120</v>
+      </c>
+      <c r="I78">
+        <v>94.9</v>
+      </c>
+      <c r="J78">
+        <v>75.3</v>
+      </c>
+      <c r="K78">
+        <v>122</v>
+      </c>
+      <c r="L78">
+        <v>89.6</v>
+      </c>
+      <c r="M78">
+        <v>78</v>
+      </c>
+      <c r="N78">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="O78">
+        <v>99</v>
+      </c>
+      <c r="P78">
+        <v>75.7</v>
+      </c>
+      <c r="Q78">
+        <v>127.7</v>
+      </c>
+      <c r="R78">
+        <v>95.8</v>
+      </c>
+      <c r="S78">
+        <v>76.7</v>
+      </c>
+      <c r="T78">
+        <v>92</v>
+      </c>
+      <c r="U78">
+        <v>1325</v>
+      </c>
+      <c r="V78">
+        <v>1296</v>
+      </c>
+      <c r="W78">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="X78">
+        <v>1.05</v>
+      </c>
+      <c r="Y78">
+        <v>0.9</v>
+      </c>
+      <c r="Z78">
+        <v>1.33</v>
+      </c>
+      <c r="AA78">
+        <v>5.6</v>
+      </c>
+      <c r="AB78">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AC78">
+        <v>3.67</v>
+      </c>
+      <c r="AD78">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79">
+        <v>24.488323479999998</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <v>115</v>
+      </c>
+      <c r="F79">
+        <v>71.5</v>
+      </c>
+      <c r="G79">
+        <v>95.5</v>
+      </c>
+      <c r="H79">
+        <v>112</v>
+      </c>
+      <c r="I79">
+        <v>79.5</v>
+      </c>
+      <c r="J79">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="K79">
+        <v>114</v>
+      </c>
+      <c r="L79">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="M79">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="N79">
+        <v>118.1</v>
+      </c>
+      <c r="O79">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="P79">
+        <v>56</v>
+      </c>
+      <c r="Q79">
+        <v>120.6</v>
+      </c>
+      <c r="R79">
+        <v>78.7</v>
+      </c>
+      <c r="S79">
+        <v>60.5</v>
+      </c>
+      <c r="T79">
+        <v>83</v>
+      </c>
+      <c r="U79">
+        <v>1174</v>
+      </c>
+      <c r="V79">
+        <v>1295</v>
+      </c>
+      <c r="W79">
+        <v>1.04</v>
+      </c>
+      <c r="X79">
+        <v>1.06</v>
+      </c>
+      <c r="Y79">
+        <v>1.7</v>
+      </c>
+      <c r="Z79">
+        <v>0.47</v>
+      </c>
+      <c r="AA79">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AB79">
+        <v>1.32</v>
+      </c>
+      <c r="AC79">
+        <v>2.7</v>
+      </c>
+      <c r="AD79">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C80">
+        <v>23.548239599999999</v>
+      </c>
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>152.5</v>
+      </c>
+      <c r="F80">
+        <v>94.5</v>
+      </c>
+      <c r="G80">
+        <v>76</v>
+      </c>
+      <c r="H80">
+        <v>154</v>
+      </c>
+      <c r="I80">
+        <v>121.3</v>
+      </c>
+      <c r="J80">
+        <v>92.6</v>
+      </c>
+      <c r="K80">
+        <v>155</v>
+      </c>
+      <c r="L80">
+        <v>117.1</v>
+      </c>
+      <c r="M80">
+        <v>95.7</v>
+      </c>
+      <c r="N80">
+        <v>181.9</v>
+      </c>
+      <c r="O80">
+        <v>127.7</v>
+      </c>
+      <c r="P80">
+        <v>90.6</v>
+      </c>
+      <c r="Q80">
+        <v>182.9</v>
+      </c>
+      <c r="R80">
+        <v>127.4</v>
+      </c>
+      <c r="S80">
+        <v>94.7</v>
+      </c>
+      <c r="T80">
+        <v>80</v>
+      </c>
+      <c r="U80">
+        <v>1756</v>
+      </c>
+      <c r="V80">
+        <v>1801</v>
+      </c>
+      <c r="W80">
+        <v>1.17</v>
+      </c>
+      <c r="X80">
+        <v>1.18</v>
+      </c>
+      <c r="Y80">
+        <v>12.6</v>
+      </c>
+      <c r="Z80">
+        <v>0.97</v>
+      </c>
+      <c r="AA80">
+        <v>5.05</v>
+      </c>
+      <c r="AB80">
+        <v>1.35</v>
+      </c>
+      <c r="AC80">
+        <v>3.19</v>
+      </c>
+      <c r="AD80">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81">
+        <v>23.640362540000002</v>
+      </c>
+      <c r="D81">
+        <v>91</v>
+      </c>
+      <c r="E81">
+        <v>124</v>
+      </c>
+      <c r="F81">
+        <v>80.5</v>
+      </c>
+      <c r="G81">
+        <v>75.5</v>
+      </c>
+      <c r="H81">
+        <v>121</v>
+      </c>
+      <c r="I81">
+        <v>95.1</v>
+      </c>
+      <c r="J81">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K81">
+        <v>118</v>
+      </c>
+      <c r="L81">
+        <v>95</v>
+      </c>
+      <c r="M81">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="N81">
+        <v>151</v>
+      </c>
+      <c r="O81">
+        <v>99.7</v>
+      </c>
+      <c r="P81">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Q81">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="R81">
+        <v>93.3</v>
+      </c>
+      <c r="S81">
+        <v>66</v>
+      </c>
+      <c r="T81">
+        <v>79</v>
+      </c>
+      <c r="U81">
+        <v>1326</v>
+      </c>
+      <c r="V81">
+        <v>1307</v>
+      </c>
+      <c r="W81">
+        <v>1.25</v>
+      </c>
+      <c r="X81">
+        <v>1.28</v>
+      </c>
+      <c r="Y81">
+        <v>1.8</v>
+      </c>
+      <c r="Z81">
+        <v>0.93</v>
+      </c>
+      <c r="AA81">
+        <v>5.46</v>
+      </c>
+      <c r="AB81">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AC81">
+        <v>2.81</v>
+      </c>
+      <c r="AD81">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82">
+        <v>29.3771117</v>
+      </c>
+      <c r="D82">
+        <v>98</v>
+      </c>
+      <c r="E82">
+        <v>134</v>
+      </c>
+      <c r="F82">
+        <v>76</v>
+      </c>
+      <c r="G82">
+        <v>71.5</v>
+      </c>
+      <c r="H82">
+        <v>122</v>
+      </c>
+      <c r="I82">
+        <v>82.8</v>
+      </c>
+      <c r="J82">
+        <v>70</v>
+      </c>
+      <c r="K82">
+        <v>125</v>
+      </c>
+      <c r="L82">
+        <v>91.7</v>
+      </c>
+      <c r="M82">
+        <v>71.5</v>
+      </c>
+      <c r="N82">
+        <v>135.5</v>
+      </c>
+      <c r="O82">
+        <v>85</v>
+      </c>
+      <c r="P82">
+        <v>63.4</v>
+      </c>
+      <c r="Q82">
+        <v>130.6</v>
+      </c>
+      <c r="R82">
+        <v>86.8</v>
+      </c>
+      <c r="S82">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="T82">
+        <v>70</v>
+      </c>
+      <c r="U82">
+        <v>1170</v>
+      </c>
+      <c r="V82">
+        <v>1220</v>
+      </c>
+      <c r="W82">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="X82">
+        <v>1.05</v>
+      </c>
+      <c r="Y82">
+        <v>0.7</v>
+      </c>
+      <c r="Z82">
+        <v>1.43</v>
+      </c>
+      <c r="AA82">
+        <v>5.09</v>
+      </c>
+      <c r="AB82">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC82">
+        <v>3.42</v>
+      </c>
+      <c r="AD82">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83">
+        <v>20.978646579999999</v>
+      </c>
+      <c r="D83">
+        <v>78</v>
+      </c>
+      <c r="E83">
+        <v>102.5</v>
+      </c>
+      <c r="F83">
+        <v>66</v>
+      </c>
+      <c r="G83">
+        <v>81</v>
+      </c>
+      <c r="H83">
+        <v>105</v>
+      </c>
+      <c r="I83">
+        <v>80</v>
+      </c>
+      <c r="J83">
+        <v>67.5</v>
+      </c>
+      <c r="K83">
+        <v>104</v>
+      </c>
+      <c r="L83">
+        <v>79.5</v>
+      </c>
+      <c r="M83">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="N83">
+        <v>115.1</v>
+      </c>
+      <c r="O83">
+        <v>83.4</v>
+      </c>
+      <c r="P83">
+        <v>64</v>
+      </c>
+      <c r="Q83">
+        <v>106.7</v>
+      </c>
+      <c r="R83">
+        <v>76.7</v>
+      </c>
+      <c r="S83">
+        <v>64.2</v>
+      </c>
+      <c r="T83">
+        <v>72</v>
+      </c>
+      <c r="U83">
+        <v>1178</v>
+      </c>
+      <c r="V83">
+        <v>1129</v>
+      </c>
+      <c r="W83">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X83">
+        <v>1.02</v>
+      </c>
+      <c r="Y83">
+        <v>1.3</v>
+      </c>
+      <c r="Z83">
+        <v>0.76</v>
+      </c>
+      <c r="AA83">
+        <v>6.39</v>
+      </c>
+      <c r="AB83">
+        <v>1.78</v>
+      </c>
+      <c r="AC83">
+        <v>3.87</v>
+      </c>
+      <c r="AD83">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84">
+        <v>18.413988100000001</v>
+      </c>
+      <c r="D84">
+        <v>63</v>
+      </c>
+      <c r="E84">
+        <v>124</v>
+      </c>
+      <c r="F84">
+        <v>83.5</v>
+      </c>
+      <c r="G84">
+        <v>73.5</v>
+      </c>
+      <c r="H84">
+        <v>121</v>
+      </c>
+      <c r="I84">
+        <v>95.6</v>
+      </c>
+      <c r="J84">
+        <v>62.9</v>
+      </c>
+      <c r="K84">
+        <v>123</v>
+      </c>
+      <c r="L84">
+        <v>94.1</v>
+      </c>
+      <c r="M84">
+        <v>59.9</v>
+      </c>
+      <c r="N84">
+        <v>140.6</v>
+      </c>
+      <c r="O84">
+        <v>91.1</v>
+      </c>
+      <c r="P84">
+        <v>59.7</v>
+      </c>
+      <c r="Q84">
+        <v>131</v>
+      </c>
+      <c r="R84">
+        <v>88.2</v>
+      </c>
+      <c r="S84">
+        <v>58.9</v>
+      </c>
+      <c r="T84">
+        <v>39</v>
+      </c>
+      <c r="U84">
+        <v>1067</v>
+      </c>
+      <c r="V84">
+        <v>1065</v>
+      </c>
+      <c r="W84">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="X84">
+        <v>1.07</v>
+      </c>
+      <c r="Y84">
+        <v>0.6</v>
+      </c>
+      <c r="Z84">
+        <v>0.79</v>
+      </c>
+      <c r="AA84">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AB84">
+        <v>1.38</v>
+      </c>
+      <c r="AC84">
+        <v>3.12</v>
+      </c>
+      <c r="AD84">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85">
+        <v>26.243142720000002</v>
+      </c>
+      <c r="D85">
+        <v>84.5</v>
+      </c>
+      <c r="E85">
+        <v>128.5</v>
+      </c>
+      <c r="F85">
+        <v>86.5</v>
+      </c>
+      <c r="G85">
+        <v>67.5</v>
+      </c>
+      <c r="H85">
+        <v>132</v>
+      </c>
+      <c r="I85">
+        <v>102.2</v>
+      </c>
+      <c r="J85">
+        <v>84.2</v>
+      </c>
+      <c r="K85">
+        <v>138</v>
+      </c>
+      <c r="L85">
+        <v>93.7</v>
+      </c>
+      <c r="M85">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="N85">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="O85">
+        <v>103</v>
+      </c>
+      <c r="P85">
+        <v>80.3</v>
+      </c>
+      <c r="Q85">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="R85">
+        <v>106.6</v>
+      </c>
+      <c r="S85">
+        <v>84.1</v>
+      </c>
+      <c r="T85">
+        <v>67</v>
+      </c>
+      <c r="U85">
+        <v>1301</v>
+      </c>
+      <c r="V85">
+        <v>1246</v>
+      </c>
+      <c r="W85">
+        <v>1.03</v>
+      </c>
+      <c r="X85">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="Y85">
+        <v>1.3</v>
+      </c>
+      <c r="Z85">
+        <v>0.77</v>
+      </c>
+      <c r="AA85">
+        <v>5.14</v>
+      </c>
+      <c r="AB85">
+        <v>1.68</v>
+      </c>
+      <c r="AC85">
+        <v>2.9</v>
+      </c>
+      <c r="AD85">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86">
+        <v>25.584264770000001</v>
+      </c>
+      <c r="D86">
+        <v>87.7</v>
+      </c>
+      <c r="E86">
+        <v>134.5</v>
+      </c>
+      <c r="F86">
+        <v>81</v>
+      </c>
+      <c r="G86">
+        <v>84.5</v>
+      </c>
+      <c r="H86">
+        <v>174</v>
+      </c>
+      <c r="I86">
+        <v>127.3</v>
+      </c>
+      <c r="J86">
+        <v>103.5</v>
+      </c>
+      <c r="K86">
+        <v>160</v>
+      </c>
+      <c r="L86">
+        <v>123.9</v>
+      </c>
+      <c r="M86">
+        <v>95.2</v>
+      </c>
+      <c r="N86">
+        <v>185.5</v>
+      </c>
+      <c r="O86">
+        <v>119.7</v>
+      </c>
+      <c r="P86">
+        <v>91.6</v>
+      </c>
+      <c r="Q86">
+        <v>188</v>
+      </c>
+      <c r="R86">
+        <v>124.4</v>
+      </c>
+      <c r="S86">
+        <v>96</v>
+      </c>
+      <c r="T86">
+        <v>79</v>
+      </c>
+      <c r="U86">
+        <v>1961</v>
+      </c>
+      <c r="V86">
+        <v>2073</v>
+      </c>
+      <c r="W86">
+        <v>1.07</v>
+      </c>
+      <c r="X86">
+        <v>1.08</v>
+      </c>
+      <c r="Y86">
+        <v>6.7</v>
+      </c>
+      <c r="Z86">
+        <v>0.75</v>
+      </c>
+      <c r="AA86">
+        <v>7.92</v>
+      </c>
+      <c r="AB86">
+        <v>1.47</v>
+      </c>
+      <c r="AC86">
+        <v>5.72</v>
+      </c>
+      <c r="AD86">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87">
+        <v>26.84703434</v>
+      </c>
+      <c r="D87">
+        <v>86.5</v>
+      </c>
+      <c r="E87">
+        <v>139.5</v>
+      </c>
+      <c r="F87">
+        <v>94.5</v>
+      </c>
+      <c r="G87">
+        <v>81</v>
+      </c>
+      <c r="H87">
+        <v>134</v>
+      </c>
+      <c r="I87">
+        <v>105.8</v>
+      </c>
+      <c r="J87">
+        <v>85.5</v>
+      </c>
+      <c r="K87">
+        <v>124</v>
+      </c>
+      <c r="L87">
+        <v>97.9</v>
+      </c>
+      <c r="M87">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="N87">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="O87">
+        <v>94.6</v>
+      </c>
+      <c r="P87">
+        <v>71.8</v>
+      </c>
+      <c r="Q87">
+        <v>139.1</v>
+      </c>
+      <c r="R87">
+        <v>98.5</v>
+      </c>
+      <c r="S87">
+        <v>74</v>
+      </c>
+      <c r="T87">
+        <v>74</v>
+      </c>
+      <c r="U87">
+        <v>1382</v>
+      </c>
+      <c r="V87">
+        <v>1380</v>
+      </c>
+      <c r="W87">
+        <v>1.07</v>
+      </c>
+      <c r="X87">
+        <v>1.04</v>
+      </c>
+      <c r="Y87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z87">
+        <v>1.62</v>
+      </c>
+      <c r="AA87">
+        <v>5.52</v>
+      </c>
+      <c r="AB87">
+        <v>1.34</v>
+      </c>
+      <c r="AC87">
+        <v>3.51</v>
+      </c>
+      <c r="AD87">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88">
+        <v>22.151022510000001</v>
+      </c>
+      <c r="D88">
+        <v>73</v>
+      </c>
+      <c r="E88">
+        <v>122.5</v>
+      </c>
+      <c r="F88">
+        <v>84.5</v>
+      </c>
+      <c r="G88">
+        <v>87</v>
+      </c>
+      <c r="H88">
+        <v>114</v>
+      </c>
+      <c r="I88">
+        <v>89</v>
+      </c>
+      <c r="J88">
+        <v>74.3</v>
+      </c>
+      <c r="K88">
+        <v>114</v>
+      </c>
+      <c r="L88">
+        <v>88.6</v>
+      </c>
+      <c r="M88">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="N88">
+        <v>114.4</v>
+      </c>
+      <c r="O88">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="P88">
+        <v>67</v>
+      </c>
+      <c r="Q88">
+        <v>123.3</v>
+      </c>
+      <c r="R88">
+        <v>87.8</v>
+      </c>
+      <c r="S88">
+        <v>74</v>
+      </c>
+      <c r="T88">
+        <v>83</v>
+      </c>
+      <c r="U88">
+        <v>1017</v>
+      </c>
+      <c r="V88">
+        <v>1030</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>1.08</v>
+      </c>
+      <c r="Y88">
+        <v>0.4</v>
+      </c>
+      <c r="Z88">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA88">
+        <v>3.95</v>
+      </c>
+      <c r="AB88">
+        <v>1.82</v>
+      </c>
+      <c r="AC88">
+        <v>1.72</v>
+      </c>
+      <c r="AD88">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89">
+        <v>21.782626650000001</v>
+      </c>
+      <c r="D89">
+        <v>83</v>
+      </c>
+      <c r="E89">
+        <v>137</v>
+      </c>
+      <c r="F89">
+        <v>88.5</v>
+      </c>
+      <c r="G89">
+        <v>87</v>
+      </c>
+      <c r="H89">
+        <v>132</v>
+      </c>
+      <c r="I89">
+        <v>93.5</v>
+      </c>
+      <c r="J89">
+        <v>77.3</v>
+      </c>
+      <c r="K89">
+        <v>136</v>
+      </c>
+      <c r="L89">
+        <v>93.3</v>
+      </c>
+      <c r="M89">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="N89">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="O89">
+        <v>92.5</v>
+      </c>
+      <c r="P89">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="Q89">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="R89">
+        <v>89.7</v>
+      </c>
+      <c r="S89">
+        <v>69.5</v>
+      </c>
+      <c r="T89">
+        <v>81</v>
+      </c>
+      <c r="U89">
+        <v>1603</v>
+      </c>
+      <c r="V89">
+        <v>1498</v>
+      </c>
+      <c r="W89">
+        <v>1.03</v>
+      </c>
+      <c r="X89">
+        <v>1.05</v>
+      </c>
+      <c r="Y89">
+        <v>0.5</v>
+      </c>
+      <c r="Z89">
+        <v>1.23</v>
+      </c>
+      <c r="AA89">
+        <v>4.38</v>
+      </c>
+      <c r="AB89">
+        <v>1.21</v>
+      </c>
+      <c r="AC89">
+        <v>2.39</v>
+      </c>
+      <c r="AD89">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="15" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90">
+        <v>25.32605573</v>
+      </c>
+      <c r="D90">
+        <v>87.1</v>
+      </c>
+      <c r="E90">
+        <v>134</v>
+      </c>
+      <c r="F90">
+        <v>85</v>
+      </c>
+      <c r="G90">
+        <v>80.5</v>
+      </c>
+      <c r="H90">
+        <v>125</v>
+      </c>
+      <c r="I90">
+        <v>101.5</v>
+      </c>
+      <c r="J90">
+        <v>85.4</v>
+      </c>
+      <c r="K90">
+        <v>129</v>
+      </c>
+      <c r="L90">
+        <v>97.6</v>
+      </c>
+      <c r="M90">
+        <v>81.3</v>
+      </c>
+      <c r="N90">
+        <v>155.9</v>
+      </c>
+      <c r="O90">
+        <v>105.2</v>
+      </c>
+      <c r="P90">
+        <v>81.3</v>
+      </c>
+      <c r="Q90">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="R90">
+        <v>103.2</v>
+      </c>
+      <c r="S90">
+        <v>79.8</v>
+      </c>
+      <c r="T90">
+        <v>82</v>
+      </c>
+      <c r="U90">
+        <v>1479</v>
+      </c>
+      <c r="V90">
+        <v>1530</v>
+      </c>
+      <c r="W90">
+        <v>1.21</v>
+      </c>
+      <c r="X90">
+        <v>1.18</v>
+      </c>
+      <c r="Y90">
+        <v>1.7</v>
+      </c>
+      <c r="Z90">
+        <v>0.74</v>
+      </c>
+      <c r="AA90">
+        <v>4.91</v>
+      </c>
+      <c r="AB90">
+        <v>1.77</v>
+      </c>
+      <c r="AC90">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AD90">
+        <v>6.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0161617B-8628-4E40-ACE2-ADB2418AE8F7}">
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41677,7 +49979,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -41914,7 +50216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C90"/>
   <sheetViews>
